--- a/src/attributions/attributions_saliency_traj_73.xlsx
+++ b/src/attributions/attributions_saliency_traj_73.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.858592804637738e-05</v>
+        <v>0.004627656191587448</v>
       </c>
       <c r="B4" t="n">
-        <v>8.853527833707631e-05</v>
+        <v>0.01910644024610519</v>
       </c>
       <c r="C4" t="n">
-        <v>1.852883724495769e-05</v>
+        <v>0.002817264059558511</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001128329386119731</v>
+        <v>0.0002505101729184389</v>
       </c>
       <c r="E4" t="n">
-        <v>1.141469419962959e-05</v>
+        <v>0.0003459294384811074</v>
       </c>
       <c r="F4" t="n">
-        <v>3.501677565509453e-05</v>
+        <v>0.01853561215102673</v>
       </c>
       <c r="G4" t="n">
-        <v>1.417626845068298e-05</v>
+        <v>0.00134726706892252</v>
       </c>
       <c r="H4" t="n">
-        <v>3.170628770021722e-05</v>
+        <v>0.001172271091490984</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06312834052369e-05</v>
+        <v>0.001520483987405896</v>
       </c>
       <c r="J4" t="n">
-        <v>1.272950339625822e-05</v>
+        <v>0.01024447288364172</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8929537772201e-05</v>
+        <v>0.008850747719407082</v>
       </c>
       <c r="L4" t="n">
-        <v>1.736570425237005e-06</v>
+        <v>0.003875220660120249</v>
       </c>
       <c r="M4" t="n">
-        <v>9.141587361227721e-05</v>
+        <v>0.00325173232704401</v>
       </c>
       <c r="N4" t="n">
-        <v>3.0200857509044e-05</v>
+        <v>0.001615752815268934</v>
       </c>
       <c r="O4" t="n">
-        <v>1.710172364255413e-05</v>
+        <v>0.01354257576167583</v>
       </c>
       <c r="P4" t="n">
-        <v>1.421397792000789e-05</v>
+        <v>0.003348898608237505</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.03399806903326e-05</v>
+        <v>0.003510810667648911</v>
       </c>
       <c r="R4" t="n">
-        <v>3.772175841731951e-05</v>
+        <v>0.002278981963172555</v>
       </c>
       <c r="S4" t="n">
-        <v>1.330074519501068e-05</v>
+        <v>0.0002866339928004891</v>
       </c>
       <c r="T4" t="n">
-        <v>1.015285306493752e-06</v>
+        <v>0.002116716932505369</v>
       </c>
       <c r="U4" t="n">
-        <v>6.438673608499812e-06</v>
+        <v>0.002879762556403875</v>
       </c>
       <c r="V4" t="n">
-        <v>3.662962626549415e-07</v>
+        <v>0.000444784527644515</v>
       </c>
       <c r="W4" t="n">
-        <v>6.71101370244287e-05</v>
+        <v>0.003449304960668087</v>
       </c>
       <c r="X4" t="n">
-        <v>2.987765356010641e-06</v>
+        <v>0.0001810893299989402</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.170557309000287e-06</v>
+        <v>0.003116728272289038</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.131239150709007e-05</v>
+        <v>0.002106426516547799</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.803892468567938e-06</v>
+        <v>0.0006903843022882938</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.683166374277789e-05</v>
+        <v>0.004627698566764593</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.436743125144858e-05</v>
+        <v>0.001814966206438839</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.499113856581971e-06</v>
+        <v>0.005046239122748375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.321783565799706e-05</v>
+        <v>0.001925887539982796</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.056821853737347e-05</v>
+        <v>0.003372818464413285</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.904854409280233e-05</v>
+        <v>0.002337554236873984</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.204859113902785e-06</v>
+        <v>0.003737420774996281</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.225283813255373e-05</v>
+        <v>0.000997263821773231</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.555405899329344e-06</v>
+        <v>0.003668093355372548</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.31733556574909e-05</v>
+        <v>0.0005175495170988142</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.666641401243396e-05</v>
+        <v>0.0004730092477984726</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.333095835638233e-06</v>
+        <v>0.002671537455171347</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.383981649880297e-05</v>
+        <v>0.002652636030688882</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.24603944743285e-06</v>
+        <v>0.001375795807689428</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.089175177388825e-05</v>
+        <v>0.003735494799911976</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.984982064750511e-06</v>
+        <v>0.002636542776599526</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.027078259445261e-06</v>
+        <v>0.001069631776772439</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.680533023318276e-05</v>
+        <v>0.003190337680280209</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.784981527132913e-05</v>
+        <v>1.786819484550506e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.35287254024297e-05</v>
+        <v>0.008107900619506836</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.895247623906471e-05</v>
+        <v>0.005721305962651968</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.452039815485477e-05</v>
+        <v>0.002750305226072669</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.245617542939726e-05</v>
+        <v>0.00209596729837358</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.922745923366165e-06</v>
+        <v>0.004803005140274763</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.388513737765606e-05</v>
+        <v>0.005629993509501219</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.081080624018796e-05</v>
+        <v>4.288740456104279e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.516819677111926e-06</v>
+        <v>0.00672956183552742</v>
       </c>
       <c r="BC4" t="n">
-        <v>6.967972694837954e-06</v>
+        <v>0.007793613709509373</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.341806612093933e-05</v>
+        <v>0.003951618447899818</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.44828918564599e-05</v>
+        <v>0.004421385936439037</v>
       </c>
       <c r="BF4" t="n">
-        <v>5.309726475388743e-05</v>
+        <v>0.0001273020170629025</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.72018169198418e-05</v>
+        <v>0.0031821692828089</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.75872262136545e-05</v>
+        <v>0.009865329600870609</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.169632352888584e-05</v>
+        <v>0.00441919406875968</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.460245039197616e-05</v>
+        <v>0.001909839222207665</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.723052421060856e-05</v>
+        <v>0.004399507306516171</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.239559216832276e-05</v>
+        <v>0.002453386783599854</v>
       </c>
       <c r="BM4" t="n">
-        <v>3.260649828007445e-05</v>
+        <v>0.003430443350225687</v>
       </c>
       <c r="BN4" t="n">
-        <v>8.65423089635442e-07</v>
+        <v>0.0009154193103313446</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.107649950427003e-06</v>
+        <v>0.001190622104331851</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.231216603831854e-05</v>
+        <v>0.003422156209126115</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.15363791337586e-05</v>
+        <v>0.002087075496092439</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.235216404893436e-05</v>
+        <v>0.001606508856639266</v>
       </c>
       <c r="BS4" t="n">
-        <v>8.329917363880668e-06</v>
+        <v>0.001157996477559209</v>
       </c>
       <c r="BT4" t="n">
-        <v>4.915530553262215e-06</v>
+        <v>0.003081830218434334</v>
       </c>
       <c r="BU4" t="n">
-        <v>3.303744233562611e-05</v>
+        <v>0.0007463960209861398</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.264986258320278e-05</v>
+        <v>0.003870452521368861</v>
       </c>
       <c r="BW4" t="n">
-        <v>5.99553641222883e-06</v>
+        <v>0.004911239258944988</v>
       </c>
       <c r="BX4" t="n">
-        <v>7.589950109831989e-05</v>
+        <v>0.001357319299131632</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.654171319387387e-05</v>
+        <v>0.004554641433060169</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.427003892080393e-05</v>
+        <v>0.0001703058369457722</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.528299549136136e-06</v>
+        <v>0.00111752946395427</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.162292184948456e-05</v>
+        <v>0.0006832801154814661</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.174800672743004e-05</v>
+        <v>0.00175132742151618</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.915283428388648e-05</v>
+        <v>0.000600749917794019</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.669826815486886e-05</v>
+        <v>0.001869928790256381</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.131637984348345e-06</v>
+        <v>0.002710697706788778</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.902308576973155e-05</v>
+        <v>0.0001019420451484621</v>
       </c>
       <c r="CH4" t="n">
-        <v>8.202245226129889e-06</v>
+        <v>0.00134066550526768</v>
       </c>
       <c r="CI4" t="n">
-        <v>5.225429049460217e-06</v>
+        <v>0.003205522894859314</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2.379726993240183e-07</v>
+        <v>0.00039782898966223</v>
       </c>
       <c r="CK4" t="n">
-        <v>4.434398761077318e-06</v>
+        <v>0.0004723620950244367</v>
       </c>
       <c r="CL4" t="n">
-        <v>8.346174581674859e-06</v>
+        <v>0.002121710451319814</v>
       </c>
       <c r="CM4" t="n">
-        <v>6.318262421700638e-06</v>
+        <v>0.001969975885003805</v>
       </c>
       <c r="CN4" t="n">
-        <v>5.354992026695982e-06</v>
+        <v>0.005172671284526587</v>
       </c>
       <c r="CO4" t="n">
-        <v>4.889752744929865e-07</v>
+        <v>0.003742493223398924</v>
       </c>
       <c r="CP4" t="n">
-        <v>5.743534347857349e-05</v>
+        <v>0.0005717803724110126</v>
       </c>
       <c r="CQ4" t="n">
-        <v>6.960824066482019e-06</v>
+        <v>0.002009231597185135</v>
       </c>
       <c r="CR4" t="n">
-        <v>4.582477413350716e-05</v>
+        <v>0.0005812451709061861</v>
       </c>
       <c r="CS4" t="n">
-        <v>2.16232547245454e-05</v>
+        <v>0.000633527641184628</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.018183411360951e-05</v>
+        <v>0.001364024821668863</v>
       </c>
       <c r="CU4" t="n">
-        <v>4.5640217649634e-06</v>
+        <v>0.00468091806396842</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.886170866782777e-05</v>
+        <v>0.0002282063360325992</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.685867027845234e-05</v>
+        <v>0.002007427392527461</v>
       </c>
       <c r="CX4" t="n">
-        <v>4.141027602599934e-06</v>
+        <v>0.002429739572107792</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.787769360817038e-05</v>
+        <v>0.0007069249404594302</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3.71475152860512e-06</v>
+        <v>0.001940214773640037</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.711317509034416e-06</v>
+        <v>0.002443345729261637</v>
       </c>
       <c r="DB4" t="n">
-        <v>3.197675596311456e-06</v>
+        <v>0.001050309394486248</v>
       </c>
       <c r="DC4" t="n">
-        <v>7.670143531868234e-06</v>
+        <v>0.0002236849395558238</v>
       </c>
       <c r="DD4" t="n">
-        <v>8.231916581280529e-06</v>
+        <v>0.001935597392730415</v>
       </c>
       <c r="DE4" t="n">
-        <v>4.533427636488341e-05</v>
+        <v>0.001786833396181464</v>
       </c>
       <c r="DF4" t="n">
-        <v>6.128334644017741e-05</v>
+        <v>0.00089870928786695</v>
       </c>
       <c r="DG4" t="n">
-        <v>7.421569534926675e-06</v>
+        <v>0.001893543638288975</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.931503175001126e-05</v>
+        <v>0.003795761382207274</v>
       </c>
       <c r="DI4" t="n">
-        <v>3.418423148104921e-05</v>
+        <v>0.001391915255226195</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.527347533032298e-05</v>
+        <v>0.01050000078976154</v>
       </c>
       <c r="DK4" t="n">
-        <v>9.946568752638996e-06</v>
+        <v>0.003459696657955647</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.529757537355181e-05</v>
+        <v>0.003374349791556597</v>
       </c>
       <c r="DM4" t="n">
-        <v>9.159084584098309e-06</v>
+        <v>0.00693408539518714</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.315094868914457e-05</v>
+        <v>0.003197179641574621</v>
       </c>
       <c r="DO4" t="n">
-        <v>3.457497950876132e-05</v>
+        <v>0.0003093365230597556</v>
       </c>
       <c r="DP4" t="n">
-        <v>8.316591447510291e-06</v>
+        <v>0.002079890808090568</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3.08501762447122e-06</v>
+        <v>0.0005337392212823033</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.443904511688743e-05</v>
+        <v>0.0005321449716575444</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.117021201935131e-05</v>
+        <v>0.0008675740682519972</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.777572606442845e-06</v>
+        <v>0.002300908789038658</v>
       </c>
       <c r="DU4" t="n">
-        <v>2.17327233258402e-05</v>
+        <v>0.001597472233697772</v>
       </c>
       <c r="DV4" t="n">
-        <v>2.062445310002659e-05</v>
+        <v>0.003397553460672498</v>
       </c>
       <c r="DW4" t="n">
-        <v>7.59217209633789e-06</v>
+        <v>0.001968293217942119</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.692728594411165e-05</v>
+        <v>0.003340758848935366</v>
       </c>
       <c r="DY4" t="n">
-        <v>8.107434041448869e-06</v>
+        <v>0.001320345443673432</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.944075847859494e-05</v>
+        <v>0.002471378538757563</v>
       </c>
       <c r="EA4" t="n">
-        <v>7.828879461158067e-06</v>
+        <v>0.004037752281874418</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.155151949205901e-05</v>
+        <v>0.0008710026158951223</v>
       </c>
       <c r="EC4" t="n">
-        <v>7.119557494661422e-07</v>
+        <v>4.600506508722901e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.795484422473237e-06</v>
+        <v>0.0007110825972631574</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.254593346151523e-05</v>
+        <v>0.001786591834388673</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.631192753848154e-05</v>
+        <v>0.0006934425910003483</v>
       </c>
       <c r="EG4" t="n">
-        <v>2.848428266588598e-05</v>
+        <v>0.001934989355504513</v>
       </c>
       <c r="EH4" t="n">
-        <v>9.059061085281428e-06</v>
+        <v>0.001049684942699969</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.393894490320235e-05</v>
+        <v>0.002896953839808702</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.32810816669371e-05</v>
+        <v>0.001873726141639054</v>
       </c>
       <c r="EK4" t="n">
-        <v>4.927583631797461e-06</v>
+        <v>0.002059240126982331</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.978847194550326e-06</v>
+        <v>0.00248508807271719</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.160162355517969e-05</v>
+        <v>0.0002147784689441323</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.192107902170392e-05</v>
+        <v>1.616653753444552e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>2.917392521339934e-05</v>
+        <v>0.002556383609771729</v>
       </c>
       <c r="EP4" t="n">
-        <v>2.418685653537977e-05</v>
+        <v>0.0003056387067772448</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.258153588423738e-05</v>
+        <v>0.0009062201716005802</v>
       </c>
       <c r="ER4" t="n">
-        <v>1.890737439680379e-05</v>
+        <v>0.0025965531822294</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.505741784058046e-05</v>
+        <v>0.004253833554685116</v>
       </c>
       <c r="ET4" t="n">
-        <v>6.727743766532512e-06</v>
+        <v>0.004600683692842722</v>
       </c>
       <c r="EU4" t="n">
-        <v>3.615516789068351e-06</v>
+        <v>0.00192448974121362</v>
       </c>
       <c r="EV4" t="n">
-        <v>5.038079962105257e-07</v>
+        <v>0.002515939995646477</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.009476727631409e-05</v>
+        <v>0.00415534246712923</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.592002627148759e-05</v>
+        <v>0.0001738300925353542</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.295236234000186e-05</v>
+        <v>0.002150419866666198</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3.443430387051194e-06</v>
+        <v>0.001524890307337046</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.423942103428999e-05</v>
+        <v>0.0003046978381462395</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.208888443215983e-05</v>
+        <v>0.001964869443327188</v>
       </c>
       <c r="FC4" t="n">
-        <v>5.633957243844634e-06</v>
+        <v>0.00170713709667325</v>
       </c>
       <c r="FD4" t="n">
-        <v>5.424119535746286e-06</v>
+        <v>0.001106816343963146</v>
       </c>
       <c r="FE4" t="n">
-        <v>3.5511998248694e-06</v>
+        <v>0.0004421300254762173</v>
       </c>
       <c r="FF4" t="n">
-        <v>5.815170425194083e-07</v>
+        <v>0.002990796463564038</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.179581431642873e-05</v>
+        <v>0.003184412838891149</v>
       </c>
       <c r="FH4" t="n">
-        <v>5.439333108370192e-06</v>
+        <v>0.0004974580369889736</v>
       </c>
       <c r="FI4" t="n">
-        <v>9.243813110515475e-07</v>
+        <v>0.001215242664329708</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.025129040499451e-05</v>
+        <v>0.003513095667585731</v>
       </c>
       <c r="FK4" t="n">
-        <v>3.305242717033252e-05</v>
+        <v>0.003445832524448633</v>
       </c>
       <c r="FL4" t="n">
-        <v>3.581166311050765e-06</v>
+        <v>0.004205111414194107</v>
       </c>
       <c r="FM4" t="n">
-        <v>4.158270712650847e-06</v>
+        <v>0.0004019547486677766</v>
       </c>
       <c r="FN4" t="n">
-        <v>8.134253221214749e-06</v>
+        <v>0.0002299815823789686</v>
       </c>
       <c r="FO4" t="n">
-        <v>3.559169635991566e-05</v>
+        <v>0.004441379103809595</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.870765117928386e-06</v>
+        <v>0.002139029558748007</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.757242691586725e-05</v>
+        <v>0.003400169080123305</v>
       </c>
       <c r="FR4" t="n">
-        <v>8.142817023326643e-06</v>
+        <v>0.003263950115069747</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.05667240859475e-05</v>
+        <v>0.001747032627463341</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.547192550788168e-05</v>
+        <v>0.0005160427535884082</v>
       </c>
       <c r="FU4" t="n">
-        <v>2.331018913537264e-05</v>
+        <v>0.006311664823442698</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.659811909528798e-06</v>
+        <v>0.001933231251314282</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.798214361770079e-05</v>
+        <v>0.0001473765005357563</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.433532543160254e-05</v>
+        <v>0.00416602985933423</v>
       </c>
       <c r="FY4" t="n">
-        <v>2.082805258396547e-05</v>
+        <v>0.004654557444155216</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2.303820565430215e-06</v>
+        <v>0.001828845008276403</v>
       </c>
       <c r="GA4" t="n">
-        <v>5.288344254950061e-06</v>
+        <v>0.001469543436542153</v>
       </c>
       <c r="GB4" t="n">
-        <v>4.35490146628581e-05</v>
+        <v>0.002649522153660655</v>
       </c>
       <c r="GC4" t="n">
-        <v>4.672513023251668e-05</v>
+        <v>0.003153214463964105</v>
       </c>
       <c r="GD4" t="n">
-        <v>9.856497854343615e-06</v>
+        <v>0.0007257170509546995</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.346835460935836e-06</v>
+        <v>0.0001531197922304273</v>
       </c>
       <c r="GF4" t="n">
-        <v>7.173368430812843e-06</v>
+        <v>0.001771219773218036</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.601182157173753e-05</v>
+        <v>0.004899945575743914</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1634615808725357</v>
+        <v>0.0805729553103447</v>
       </c>
       <c r="B5" t="n">
-        <v>0.009062916040420532</v>
+        <v>0.659181535243988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3856536746025085</v>
+        <v>0.04558011144399643</v>
       </c>
       <c r="D5" t="n">
-        <v>1.206433415412903</v>
+        <v>0.3334438800811768</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08802936971187592</v>
+        <v>0.1648459434509277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.300832211971283</v>
+        <v>0.1006290838122368</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0742441713809967</v>
+        <v>0.03947011381387711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5336160659790039</v>
+        <v>0.08038155734539032</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04812183231115341</v>
+        <v>0.05896021053195</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3667093515396118</v>
+        <v>0.1184384673833847</v>
       </c>
       <c r="K5" t="n">
-        <v>0.190260723233223</v>
+        <v>0.4884740710258484</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1488396227359772</v>
+        <v>0.009771688841283321</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9616504907608032</v>
+        <v>0.3152313530445099</v>
       </c>
       <c r="N5" t="n">
-        <v>0.260924220085144</v>
+        <v>0.1999519169330597</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4959926307201385</v>
+        <v>0.1619072705507278</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06085130199790001</v>
+        <v>0.0333046168088913</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8109391331672668</v>
+        <v>0.06157969683408737</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07442764192819595</v>
+        <v>0.08085929602384567</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08264070749282837</v>
+        <v>0.01411380711942911</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3123247027397156</v>
+        <v>0.04257465153932571</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2795295119285583</v>
+        <v>0.03100708499550819</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01988619565963745</v>
+        <v>0.09541222453117371</v>
       </c>
       <c r="W5" t="n">
-        <v>0.725605845451355</v>
+        <v>0.2527326643466949</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09812029451131821</v>
+        <v>0.007173523306846619</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0336230993270874</v>
+        <v>0.0732303261756897</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3177824020385742</v>
+        <v>0.08675581961870193</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07230611890554428</v>
+        <v>0.06496128439903259</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2626664340496063</v>
+        <v>0.02197801321744919</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1076008602976799</v>
+        <v>0.1077118143439293</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1992999613285065</v>
+        <v>0.005247936118394136</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1109824627637863</v>
+        <v>0.0164849329739809</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1030788868665695</v>
+        <v>0.117678128182888</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.02655677124857903</v>
+        <v>0.08868909627199173</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1530718803405762</v>
+        <v>0.002916596829891205</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2341342270374298</v>
+        <v>0.03547284379601479</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2080435156822205</v>
+        <v>0.03484655171632767</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1652251780033112</v>
+        <v>0.02768936939537525</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1423603594303131</v>
+        <v>0.1120888739824295</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.04335670918226242</v>
+        <v>0.00295187858864665</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.3062063455581665</v>
+        <v>0.02526114508509636</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.2042181938886642</v>
+        <v>0.08915361762046814</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1761074960231781</v>
+        <v>0.108704537153244</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01869135536253452</v>
+        <v>0.01919538527727127</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.09416241943836212</v>
+        <v>0.0006470624357461929</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.01175244711339474</v>
+        <v>0.06377816200256348</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01712225750088692</v>
+        <v>0.00804281048476696</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0728912353515625</v>
+        <v>0.289821594953537</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1617488265037537</v>
+        <v>0.02030909806489944</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.6332677602767944</v>
+        <v>0.1189046949148178</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1142551973462105</v>
+        <v>0.149134561419487</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.1259409785270691</v>
+        <v>0.1920257955789566</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.06741964817047119</v>
+        <v>0.06914012879133224</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.2114783972501755</v>
+        <v>0.1080848053097725</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.05761947855353355</v>
+        <v>0.02218728512525558</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.2022285163402557</v>
+        <v>0.07002273201942444</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.1238687038421631</v>
+        <v>0.1666788756847382</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0763227790594101</v>
+        <v>0.04838596656918526</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.5070661902427673</v>
+        <v>0.07804300636053085</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.188798800110817</v>
+        <v>0.1068220809102058</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.110404871404171</v>
+        <v>0.01116070710122585</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.09432331472635269</v>
+        <v>0.06921906769275665</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2411275207996368</v>
+        <v>0.05911730974912643</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01222496293485165</v>
+        <v>0.06534262001514435</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.2593340277671814</v>
+        <v>0.03037770837545395</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01608559302985668</v>
+        <v>0.04683844000101089</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.01239499449729919</v>
+        <v>0.02890747785568237</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.02178275585174561</v>
+        <v>0.01723472587764263</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.02745714597404003</v>
+        <v>0.03622737899422646</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.04333305731415749</v>
+        <v>0.03464311361312866</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.03741643950343132</v>
+        <v>0.001733556389808655</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.09214986860752106</v>
+        <v>0.08696934580802917</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.004436735063791275</v>
+        <v>0.009196564555168152</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.115338034927845</v>
+        <v>0.0215056911110878</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.007049328181892633</v>
+        <v>0.1972991675138474</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.1180442124605179</v>
+        <v>0.03924573212862015</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.5943119525909424</v>
+        <v>0.1565408259630203</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.2431637942790985</v>
+        <v>0.1353989094495773</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.2414705157279968</v>
+        <v>0.009489349089562893</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.04021364822983742</v>
+        <v>0.02901636250317097</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.2325958162546158</v>
+        <v>0.08564026653766632</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.132879301905632</v>
+        <v>0.06414660811424255</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.2733536064624786</v>
+        <v>0.005686037708073854</v>
       </c>
       <c r="CE5" t="n">
-        <v>8.635781705379486e-05</v>
+        <v>0.1046133488416672</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.06500612944364548</v>
+        <v>0.0310297142714262</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.2655236124992371</v>
+        <v>0.05433324351906776</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0793844535946846</v>
+        <v>0.01810221374034882</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.01944936066865921</v>
+        <v>0.01914845407009125</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.04824196174740791</v>
+        <v>0.0163902509957552</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0917397141456604</v>
+        <v>0.01225815247744322</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0171937420964241</v>
+        <v>0.02491309866309166</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.1552129834890366</v>
+        <v>0.03121533431112766</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.3001757860183716</v>
+        <v>0.06165950000286102</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.06987355649471283</v>
+        <v>0.04720769077539444</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.4257123172283173</v>
+        <v>0.04316963255405426</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.3372891843318939</v>
+        <v>0.06860322505235672</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.4891850054264069</v>
+        <v>0.04801267385482788</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.01123638264834881</v>
+        <v>0.1053146570920944</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.143876388669014</v>
+        <v>0.1292703449726105</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0512312687933445</v>
+        <v>3.688037395477295e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.2903188467025757</v>
+        <v>0.003802748396992683</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.037393718957901</v>
+        <v>0.09913945943117142</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.06144772469997406</v>
+        <v>0.03428865596652031</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.2369038760662079</v>
+        <v>0.06239782646298409</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.1116744130849838</v>
+        <v>0.02071691676974297</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.04693559929728508</v>
+        <v>0.02267096191644669</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.03093867376446724</v>
+        <v>0.0116991363465786</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.07693463563919067</v>
+        <v>0.01759782247245312</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.07873132824897766</v>
+        <v>0.02092881128191948</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.2981832325458527</v>
+        <v>0.05464077368378639</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0810994952917099</v>
+        <v>0.1692178249359131</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01581078767776489</v>
+        <v>0.04896014928817749</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.14350426197052</v>
+        <v>0.2528499662876129</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.2408891320228577</v>
+        <v>0.1469275206327438</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.05490183085203171</v>
+        <v>0.04312300309538841</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.1734748482704163</v>
+        <v>0.07398434728384018</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0862424448132515</v>
+        <v>0.09187912940979004</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.1510735899209976</v>
+        <v>0.04543942958116531</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.1192382946610451</v>
+        <v>0.05819239467382431</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1132125854492188</v>
+        <v>0.07940483093261719</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.05849681049585342</v>
+        <v>0.000211627222597599</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0202773530036211</v>
+        <v>0.06543721258640289</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.148423820734024</v>
+        <v>0.01657052338123322</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.234831690788269</v>
+        <v>0.0583343543112278</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.123650923371315</v>
+        <v>0.01324095204472542</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.1175573244690895</v>
+        <v>0.006195006892085075</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.05987603962421417</v>
+        <v>0.07576997578144073</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.06503084301948547</v>
+        <v>0.01596148312091827</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.1744863837957382</v>
+        <v>0.001257362077012658</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.02086423896253109</v>
+        <v>0.03584510460495949</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.1781370639801025</v>
+        <v>0.0295376218855381</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.04940367490053177</v>
+        <v>0.06034328788518906</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.2011917680501938</v>
+        <v>0.001711275428533554</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.005175195634365082</v>
+        <v>0.01077819149941206</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.1844544410705566</v>
+        <v>0.03712613880634308</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.05283422023057938</v>
+        <v>0.008616527542471886</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.1720116883516312</v>
+        <v>0.04859204590320587</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.03470569103956223</v>
+        <v>0.04034176096320152</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.05732951685786247</v>
+        <v>0.03911776840686798</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.3314386010169983</v>
+        <v>0.008640190586447716</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.1355292648077011</v>
+        <v>0.03408132493495941</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.1600612103939056</v>
+        <v>0.003495640587061644</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0152167547494173</v>
+        <v>0.01138676609843969</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.1087551116943359</v>
+        <v>0.001204212778247893</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.07209402322769165</v>
+        <v>0.0206505861133337</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.3362188637256622</v>
+        <v>0.0370585098862648</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.03359878063201904</v>
+        <v>0.05939488112926483</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.2028063833713531</v>
+        <v>0.02558723092079163</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.1118871197104454</v>
+        <v>0.08351318538188934</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1827620416879654</v>
+        <v>0.000701315701007843</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.09848129749298096</v>
+        <v>0.1248432695865631</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0142472367733717</v>
+        <v>0.06498431414365768</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.1225496679544449</v>
+        <v>0.08651462197303772</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.07100971788167953</v>
+        <v>0.009017836302518845</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.2361688166856766</v>
+        <v>0.0010335105471313</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.02570609003305435</v>
+        <v>0.08805640786886215</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.07189198583364487</v>
+        <v>0.02286211773753166</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.2071206420660019</v>
+        <v>0.06438346952199936</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.08149205893278122</v>
+        <v>0.006061957683414221</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.09104073047637939</v>
+        <v>0.02811979129910469</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.01070426311343908</v>
+        <v>0.03822628408670425</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.09234676510095596</v>
+        <v>0.02543891035020351</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0005993647500872612</v>
+        <v>0.0397457629442215</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.1235128790140152</v>
+        <v>0.01110910903662443</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01691192388534546</v>
+        <v>0.05440298095345497</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.05873843282461166</v>
+        <v>0.006360474042594433</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.1352517604827881</v>
+        <v>0.02349107712507248</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01025340240448713</v>
+        <v>0.07076065242290497</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01244568545371294</v>
+        <v>0.0002510193735361099</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.03475687652826309</v>
+        <v>0.01303909253329039</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.07492456585168839</v>
+        <v>0.025649044662714</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.008048568852245808</v>
+        <v>0.0019539431668818</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.1131852045655251</v>
+        <v>0.08060500025749207</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.109377883374691</v>
+        <v>0.04180864989757538</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.2320658266544342</v>
+        <v>0.05478345975279808</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.2238112539052963</v>
+        <v>0.01681971922516823</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.004834938794374466</v>
+        <v>0.011226586997509</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.1540083736181259</v>
+        <v>0.008029060438275337</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.02588929608464241</v>
+        <v>0.0239902064204216</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.1425923854112625</v>
+        <v>0.01738754287362099</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.1672120541334152</v>
+        <v>0.02111054770648479</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.2845875918865204</v>
+        <v>0.01259524188935757</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.2152622938156128</v>
+        <v>0.02465988323092461</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.07179386168718338</v>
+        <v>0.005865065380930901</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.2177998125553131</v>
+        <v>0.006733778864145279</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.1272394061088562</v>
+        <v>0.2482014149427414</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.2641792893409729</v>
+        <v>0.09821218252182007</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02665876224637032</v>
+        <v>0.1885558366775513</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.1051318868994713</v>
+        <v>0.03765353187918663</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.09629478305578232</v>
+        <v>0.02192019671201706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.260095638944136e-10</v>
+        <v>0.002945275977253914</v>
       </c>
       <c r="B6" t="n">
-        <v>1.016130929398784e-10</v>
+        <v>0.002949543297290802</v>
       </c>
       <c r="C6" t="n">
-        <v>1.455862513877193e-11</v>
+        <v>0.002083004219457507</v>
       </c>
       <c r="D6" t="n">
-        <v>1.543353222999144e-10</v>
+        <v>0.0003300284733995795</v>
       </c>
       <c r="E6" t="n">
-        <v>3.590170383205304e-10</v>
+        <v>0.004230265505611897</v>
       </c>
       <c r="F6" t="n">
-        <v>4.260956032453578e-10</v>
+        <v>0.002434411086142063</v>
       </c>
       <c r="G6" t="n">
-        <v>2.770398632723214e-10</v>
+        <v>0.001641447190195322</v>
       </c>
       <c r="H6" t="n">
-        <v>1.016033611411782e-11</v>
+        <v>0.001124982722103596</v>
       </c>
       <c r="I6" t="n">
-        <v>1.798308724154651e-11</v>
+        <v>0.00443218182772398</v>
       </c>
       <c r="J6" t="n">
-        <v>5.808348940705699e-11</v>
+        <v>0.001601861556991935</v>
       </c>
       <c r="K6" t="n">
-        <v>1.667992688414444e-10</v>
+        <v>0.004866354167461395</v>
       </c>
       <c r="L6" t="n">
-        <v>1.064367899372698e-10</v>
+        <v>0.003778717014938593</v>
       </c>
       <c r="M6" t="n">
-        <v>1.273564587123133e-12</v>
+        <v>0.001123447902500629</v>
       </c>
       <c r="N6" t="n">
-        <v>9.753928220668229e-11</v>
+        <v>0.001360248192213476</v>
       </c>
       <c r="O6" t="n">
-        <v>5.417673254459743e-12</v>
+        <v>3.990111872553825e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>9.97103510869124e-11</v>
+        <v>0.001877806149423122</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.59804289193255e-10</v>
+        <v>0.003606863087043166</v>
       </c>
       <c r="R6" t="n">
-        <v>1.254782527881915e-10</v>
+        <v>4.810903192264959e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.125711260319129e-10</v>
+        <v>0.001174131408333778</v>
       </c>
       <c r="T6" t="n">
-        <v>6.434366928154134e-12</v>
+        <v>0.004073468968272209</v>
       </c>
       <c r="U6" t="n">
-        <v>7.565479492877003e-11</v>
+        <v>0.001240941463038325</v>
       </c>
       <c r="V6" t="n">
-        <v>2.691498413032178e-11</v>
+        <v>0.001478548045270145</v>
       </c>
       <c r="W6" t="n">
-        <v>1.577950548004026e-10</v>
+        <v>0.004999409429728985</v>
       </c>
       <c r="X6" t="n">
-        <v>1.920144078459973e-11</v>
+        <v>0.001914562308229506</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.344798799569503e-10</v>
+        <v>0.0003845763276331127</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.271188709850435e-10</v>
+        <v>0.002132144756615162</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.718663406036214e-12</v>
+        <v>0.0004192774067632854</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.603733812416408e-10</v>
+        <v>0.0009317923104390502</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.588257106005969e-11</v>
+        <v>0.001506555010564625</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.550849899889517e-11</v>
+        <v>0.003817287040874362</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.670314300905034e-11</v>
+        <v>0.0009574359282851219</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.986299319467477e-11</v>
+        <v>0.003726127557456493</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.611176454034528e-11</v>
+        <v>0.001874544890597463</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.368840401612005e-10</v>
+        <v>0.005199641920626163</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.822110237836299e-11</v>
+        <v>0.000897360616363585</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.197725500532101e-11</v>
+        <v>0.004641830455511808</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.598002286051781e-10</v>
+        <v>0.001545245992019773</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.310399689428813e-12</v>
+        <v>0.002168426755815744</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.747248593175215e-11</v>
+        <v>0.0004127501451876014</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.904618212618004e-10</v>
+        <v>0.003254337701946497</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.700021720618672e-11</v>
+        <v>0.002800742862746119</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.430032812281382e-11</v>
+        <v>9.913793473970145e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.043666971762725e-11</v>
+        <v>0.001743071596138179</v>
       </c>
       <c r="AR6" t="n">
-        <v>9.969230302386833e-11</v>
+        <v>4.572555189952254e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.807127695378611e-11</v>
+        <v>0.0005045584985055029</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.133061353075782e-10</v>
+        <v>0.004425897262990475</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.639796714554166e-10</v>
+        <v>0.003799829166382551</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.589286250687106e-11</v>
+        <v>0.001494734897278249</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.136835791117676e-10</v>
+        <v>0.005577274598181248</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.528991626173706e-10</v>
+        <v>0.00968653429299593</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.845140234519761e-10</v>
+        <v>0.001105265342630446</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.024208079458688e-10</v>
+        <v>0.008316474966704845</v>
       </c>
       <c r="BA6" t="n">
-        <v>8.104131254960123e-11</v>
+        <v>0.007200839929282665</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.513619339396868e-11</v>
+        <v>0.002968721091747284</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.083510781096919e-10</v>
+        <v>0.004079138860106468</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.333811253256272e-11</v>
+        <v>0.001464621280319989</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.459088544430998e-10</v>
+        <v>0.001017802394926548</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.497470534354676e-12</v>
+        <v>0.0008071223273873329</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.57777132972592e-11</v>
+        <v>0.002150138141587377</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.453916986804416e-10</v>
+        <v>0.0004605072026606649</v>
       </c>
       <c r="BI6" t="n">
-        <v>8.02538174804468e-11</v>
+        <v>0.004661235958337784</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.237084462646365e-10</v>
+        <v>0.003043482778593898</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.299916840835635e-10</v>
+        <v>0.00107003131415695</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.039759806031881e-10</v>
+        <v>0.0007645469158887863</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.006909569085558e-11</v>
+        <v>0.0007741264416836202</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.316219299691724e-10</v>
+        <v>0.001333922031335533</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.408498734312147e-10</v>
+        <v>0.007478198036551476</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.110955077932019e-10</v>
+        <v>0.004853948950767517</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.239890738164885e-11</v>
+        <v>0.0009624478407204151</v>
       </c>
       <c r="BR6" t="n">
-        <v>1.022482654100543e-10</v>
+        <v>0.001555659691803157</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.402443577935841e-10</v>
+        <v>0.003978058230131865</v>
       </c>
       <c r="BT6" t="n">
-        <v>4.060772551550684e-11</v>
+        <v>0.003636373672634363</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.02311686900336e-10</v>
+        <v>0.002118152100592852</v>
       </c>
       <c r="BV6" t="n">
-        <v>3.628591177529117e-11</v>
+        <v>0.001884733093902469</v>
       </c>
       <c r="BW6" t="n">
-        <v>7.460673745462998e-11</v>
+        <v>0.001795295043848455</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.700710488579006e-10</v>
+        <v>0.001403578324243426</v>
       </c>
       <c r="BY6" t="n">
-        <v>3.13155473774529e-10</v>
+        <v>0.00449790945276618</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2.220198747071578e-10</v>
+        <v>0.002132849069312215</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.608343666581469e-12</v>
+        <v>0.003306663129478693</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.63990314383522e-11</v>
+        <v>0.003422090550884604</v>
       </c>
       <c r="CC6" t="n">
-        <v>6.384745510068512e-11</v>
+        <v>0.0007196698570623994</v>
       </c>
       <c r="CD6" t="n">
-        <v>3.502180490055906e-11</v>
+        <v>3.489994560368359e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>6.477456071518617e-11</v>
+        <v>0.001287379884161055</v>
       </c>
       <c r="CF6" t="n">
-        <v>4.559841393358965e-11</v>
+        <v>0.0002312841825187206</v>
       </c>
       <c r="CG6" t="n">
-        <v>4.462563304996614e-11</v>
+        <v>0.001850035507231951</v>
       </c>
       <c r="CH6" t="n">
-        <v>6.730943580279813e-11</v>
+        <v>0.0007959292852319777</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.995435067181361e-11</v>
+        <v>5.518072794075124e-05</v>
       </c>
       <c r="CJ6" t="n">
-        <v>3.582537738688885e-11</v>
+        <v>0.000174964196048677</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.541040294845587e-11</v>
+        <v>0.0004098150529898703</v>
       </c>
       <c r="CL6" t="n">
-        <v>7.498762027990935e-12</v>
+        <v>1.367363438475877e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>2.651574515510902e-10</v>
+        <v>0.002196361776441336</v>
       </c>
       <c r="CN6" t="n">
-        <v>2.52855347770975e-10</v>
+        <v>0.005254742223769426</v>
       </c>
       <c r="CO6" t="n">
-        <v>5.021146692874012e-11</v>
+        <v>0.0006863601738587022</v>
       </c>
       <c r="CP6" t="n">
-        <v>2.038263446912936e-10</v>
+        <v>0.0004872472491115332</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.539309929521337e-10</v>
+        <v>0.00535264378413558</v>
       </c>
       <c r="CR6" t="n">
-        <v>2.295071077629274e-11</v>
+        <v>0.002544790739193559</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.808716648676878e-10</v>
+        <v>0.001606602338142693</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.820848832296718e-10</v>
+        <v>0.001232974696904421</v>
       </c>
       <c r="CU6" t="n">
-        <v>2.268476517741647e-10</v>
+        <v>0.003788211150094867</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.021602329982386e-11</v>
+        <v>2.685579238459468e-05</v>
       </c>
       <c r="CW6" t="n">
-        <v>5.991133977811813e-11</v>
+        <v>0.0012672352604568</v>
       </c>
       <c r="CX6" t="n">
-        <v>8.63205062984207e-11</v>
+        <v>5.919046816416085e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.997505104713639e-11</v>
+        <v>0.002037311671301723</v>
       </c>
       <c r="CZ6" t="n">
-        <v>8.715612259679872e-11</v>
+        <v>0.0004800477472599596</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.844811109430466e-11</v>
+        <v>0.001159589854069054</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.217273665702015e-12</v>
+        <v>0.0008319439366459846</v>
       </c>
       <c r="DC6" t="n">
-        <v>6.329113622083327e-11</v>
+        <v>0.0004851632402278483</v>
       </c>
       <c r="DD6" t="n">
-        <v>5.368727164223319e-12</v>
+        <v>8.82989406818524e-05</v>
       </c>
       <c r="DE6" t="n">
-        <v>8.428809733507237e-12</v>
+        <v>0.004325348418205976</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.581938191552723e-10</v>
+        <v>0.006779760587960482</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.059771047642101e-10</v>
+        <v>0.0001557875366415828</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.0571741398957e-10</v>
+        <v>0.002992480061948299</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.208970146215904e-10</v>
+        <v>0.002334775170311332</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.096791268917485e-10</v>
+        <v>0.008874017745256424</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.646593972282062e-10</v>
+        <v>0.0008430045563727617</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.184332631964935e-10</v>
+        <v>7.03333062119782e-05</v>
       </c>
       <c r="DM6" t="n">
-        <v>7.94336957321562e-11</v>
+        <v>0.006197513081133366</v>
       </c>
       <c r="DN6" t="n">
-        <v>4.392995689439516e-11</v>
+        <v>0.0006077780853956938</v>
       </c>
       <c r="DO6" t="n">
-        <v>7.34122901357992e-11</v>
+        <v>0.002396468073129654</v>
       </c>
       <c r="DP6" t="n">
-        <v>6.885186865090986e-11</v>
+        <v>0.0001867223036242649</v>
       </c>
       <c r="DQ6" t="n">
-        <v>6.650486411574619e-11</v>
+        <v>0.0005703491624444723</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.739573845556009e-10</v>
+        <v>0.002198113361373544</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.413955619256058e-10</v>
+        <v>0.001651499187573791</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.545341715176619e-11</v>
+        <v>0.002459676470607519</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.459941139676403e-10</v>
+        <v>0.0006977462326176465</v>
       </c>
       <c r="DV6" t="n">
-        <v>2.965233961149671e-11</v>
+        <v>0.004841084126383066</v>
       </c>
       <c r="DW6" t="n">
-        <v>3.82034195944847e-11</v>
+        <v>0.0003786675806622952</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.201715199046106e-11</v>
+        <v>0.0006391622591763735</v>
       </c>
       <c r="DY6" t="n">
-        <v>4.338667619618874e-11</v>
+        <v>0.0004908134578727186</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.435649793490867e-10</v>
+        <v>0.004876085557043552</v>
       </c>
       <c r="EA6" t="n">
-        <v>5.890956472631714e-11</v>
+        <v>0.002412516390904784</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.071401730696643e-11</v>
+        <v>0.001053875777870417</v>
       </c>
       <c r="EC6" t="n">
-        <v>5.540069097920153e-11</v>
+        <v>0.0001723184832371771</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.209259949119801e-11</v>
+        <v>7.949670543894172e-05</v>
       </c>
       <c r="EE6" t="n">
-        <v>9.903937392419238e-11</v>
+        <v>0.002282365458086133</v>
       </c>
       <c r="EF6" t="n">
-        <v>5.169128319826299e-11</v>
+        <v>0.001104319817386568</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.557720524433039e-12</v>
+        <v>0.001462725573219359</v>
       </c>
       <c r="EH6" t="n">
-        <v>5.151343934750585e-11</v>
+        <v>2.89541876554722e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>3.621485750171516e-11</v>
+        <v>0.004866211675107479</v>
       </c>
       <c r="EJ6" t="n">
-        <v>6.229974175431252e-11</v>
+        <v>0.001283848192542791</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.029052815182396e-10</v>
+        <v>0.003635663772001863</v>
       </c>
       <c r="EL6" t="n">
-        <v>5.252732276916916e-11</v>
+        <v>0.001014045090414584</v>
       </c>
       <c r="EM6" t="n">
-        <v>8.056803835199133e-11</v>
+        <v>0.001879013609141111</v>
       </c>
       <c r="EN6" t="n">
-        <v>5.89705853593081e-11</v>
+        <v>0.0002684787032194436</v>
       </c>
       <c r="EO6" t="n">
-        <v>7.442614580188689e-11</v>
+        <v>0.0002276477171108127</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.580618878311736e-12</v>
+        <v>0.0004501552321016788</v>
       </c>
       <c r="EQ6" t="n">
-        <v>7.291454939828412e-11</v>
+        <v>0.0005218226579017937</v>
       </c>
       <c r="ER6" t="n">
-        <v>6.216509945700111e-11</v>
+        <v>0.0003122655616607517</v>
       </c>
       <c r="ES6" t="n">
-        <v>5.945333114709683e-11</v>
+        <v>0.0003328346647322178</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.467242022323845e-10</v>
+        <v>0.001359533052891493</v>
       </c>
       <c r="EU6" t="n">
-        <v>3.056265657219726e-11</v>
+        <v>0.002723997691646218</v>
       </c>
       <c r="EV6" t="n">
-        <v>2.47267276098917e-11</v>
+        <v>0.002422470133751631</v>
       </c>
       <c r="EW6" t="n">
-        <v>8.049449128078034e-12</v>
+        <v>0.002370955422520638</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.286019207791256e-11</v>
+        <v>0.0003487562062218785</v>
       </c>
       <c r="EY6" t="n">
-        <v>6.298463833820378e-11</v>
+        <v>0.001188914407975972</v>
       </c>
       <c r="EZ6" t="n">
-        <v>8.532727302501542e-11</v>
+        <v>0.0004530357546173036</v>
       </c>
       <c r="FA6" t="n">
-        <v>5.64660124213745e-11</v>
+        <v>0.001945370342582464</v>
       </c>
       <c r="FB6" t="n">
-        <v>7.694694881266173e-11</v>
+        <v>0.0006807182799093425</v>
       </c>
       <c r="FC6" t="n">
-        <v>9.374748373425223e-12</v>
+        <v>0.0007895956514403224</v>
       </c>
       <c r="FD6" t="n">
-        <v>9.382211153818876e-12</v>
+        <v>0.0004201397532597184</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.930357345665158e-11</v>
+        <v>0.001340264570899308</v>
       </c>
       <c r="FF6" t="n">
-        <v>3.805822323954544e-11</v>
+        <v>0.0006713453331030905</v>
       </c>
       <c r="FG6" t="n">
-        <v>6.597945106934233e-11</v>
+        <v>0.002312124008312821</v>
       </c>
       <c r="FH6" t="n">
-        <v>6.081289985471194e-13</v>
+        <v>0.001759249484166503</v>
       </c>
       <c r="FI6" t="n">
-        <v>3.329403766572092e-11</v>
+        <v>0.0007730742800049484</v>
       </c>
       <c r="FJ6" t="n">
-        <v>5.075139614119095e-11</v>
+        <v>0.003369340440258384</v>
       </c>
       <c r="FK6" t="n">
-        <v>9.312070212152967e-12</v>
+        <v>0.000235977116972208</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.358987054833616e-11</v>
+        <v>0.002340168692171574</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.74229450311536e-11</v>
+        <v>0.0006661857478320599</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.745391136649289e-10</v>
+        <v>0.0005705761141143739</v>
       </c>
       <c r="FO6" t="n">
-        <v>5.275831854723023e-11</v>
+        <v>0.001948504708707333</v>
       </c>
       <c r="FP6" t="n">
-        <v>7.077249203346625e-11</v>
+        <v>0.001599454204551876</v>
       </c>
       <c r="FQ6" t="n">
-        <v>3.957013883226779e-11</v>
+        <v>0.001591545296832919</v>
       </c>
       <c r="FR6" t="n">
-        <v>9.460118799431427e-11</v>
+        <v>7.002625352470204e-05</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.499699531226639e-10</v>
+        <v>0.002191148232668638</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.507965584681472e-10</v>
+        <v>0.01307939924299717</v>
       </c>
       <c r="FU6" t="n">
-        <v>2.473722060525319e-10</v>
+        <v>0.005517425015568733</v>
       </c>
       <c r="FV6" t="n">
-        <v>4.370551837107328e-11</v>
+        <v>0.004878893494606018</v>
       </c>
       <c r="FW6" t="n">
-        <v>7.893759257360244e-11</v>
+        <v>0.002470466773957014</v>
       </c>
       <c r="FX6" t="n">
-        <v>2.873980740891735e-11</v>
+        <v>0.002540749264881015</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.766198992614321e-11</v>
+        <v>0.001414901809766889</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.846253427917333e-10</v>
+        <v>0.002917855512350798</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.16756576365951e-11</v>
+        <v>0.002092995215207338</v>
       </c>
       <c r="GB6" t="n">
-        <v>1.374691888100799e-10</v>
+        <v>0.004896092694252729</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.247514591629084e-10</v>
+        <v>0.003528980072587729</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.253169373827134e-10</v>
+        <v>0.003121333662420511</v>
       </c>
       <c r="GE6" t="n">
-        <v>9.911381437799349e-11</v>
+        <v>0.004646610002964735</v>
       </c>
       <c r="GF6" t="n">
-        <v>8.892653280412333e-11</v>
+        <v>0.006972754839807749</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.502758889548872e-10</v>
+        <v>0.006905810441821814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.104271836578846</v>
+        <v>8.915125363273546e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03025120496749878</v>
+        <v>0.0002925009466707706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1140322014689445</v>
+        <v>9.435605898033828e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6480207443237305</v>
+        <v>0.0002178308495786041</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001151710748672485</v>
+        <v>0.0004229014448355883</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2977089583873749</v>
+        <v>9.747884178068489e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03772854059934616</v>
+        <v>0.0001961565285455436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05904165655374527</v>
+        <v>0.0001267923507839441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1183233931660652</v>
+        <v>0.0003558027383405715</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1848159283399582</v>
+        <v>8.720227924641222e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01921211928129196</v>
+        <v>0.0001233329094247892</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09064456075429916</v>
+        <v>4.420976620167494e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5671679973602295</v>
+        <v>0.0003014054673258215</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1807959377765656</v>
+        <v>0.0004967742133885622</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09614603221416473</v>
+        <v>6.410582500393502e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0899527370929718</v>
+        <v>0.0001327888749074191</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1875323206186295</v>
+        <v>9.539797247271053e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1017433181405067</v>
+        <v>0.0002404109982308</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01388649828732014</v>
+        <v>1.264152797375573e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06728878617286682</v>
+        <v>8.979692938737571e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06911639869213104</v>
+        <v>7.075882604112849e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07625550031661987</v>
+        <v>2.376178599661216e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3985536992549896</v>
+        <v>0.000109047228761483</v>
       </c>
       <c r="X7" t="n">
-        <v>0.006858691573143005</v>
+        <v>3.716840001288801e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06568755209445953</v>
+        <v>8.833485480863601e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0167482253164053</v>
+        <v>2.364050305914134e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01281625032424927</v>
+        <v>5.453746052808128e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06098844483494759</v>
+        <v>7.680137059651315e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.109686553478241</v>
+        <v>0.0001209292895509861</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.04624168202280998</v>
+        <v>0.0001596192305441946</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02148813009262085</v>
+        <v>0.0001242627768078819</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.004962556064128876</v>
+        <v>3.716546416399069e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.155390590429306</v>
+        <v>0.0001177863014163449</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.05318674445152283</v>
+        <v>6.796322122681886e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1206783801317215</v>
+        <v>8.59077917994e-05</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.02531564608216286</v>
+        <v>0.0001184923385153525</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.09660433977842331</v>
+        <v>4.525299664237536e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02829013392329216</v>
+        <v>0.000128526400658302</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.004964773543179035</v>
+        <v>1.447720933356322e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2675471007823944</v>
+        <v>4.927339978166856e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.02635252848267555</v>
+        <v>3.591714994399808e-05</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1812459081411362</v>
+        <v>0.0001207369568874128</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.00945618562400341</v>
+        <v>2.731066160777118e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.02492573112249374</v>
+        <v>7.346560323640006e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.004828227683901787</v>
+        <v>2.216749635408632e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0127140935510397</v>
+        <v>4.468253973755054e-05</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.07793670892715454</v>
+        <v>0.0004181551048532128</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1254587173461914</v>
+        <v>4.958913268637843e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.4078530073165894</v>
+        <v>2.666914951987565e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1337990909814835</v>
+        <v>1.322538628301118e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.01341219618916512</v>
+        <v>0.0001901212090160698</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.01094289869070053</v>
+        <v>0.0001287127670366317</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1203242987394333</v>
+        <v>0.0001411712728440762</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001011108979582787</v>
+        <v>8.458379306830466e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.04045636579394341</v>
+        <v>5.012803740100935e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.001669737976044416</v>
+        <v>0.0001728806819301099</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.05241869390010834</v>
+        <v>6.799647235311568e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.3174586892127991</v>
+        <v>0.0002700408222153783</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1401070952415466</v>
+        <v>0.0001684429444139823</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1490179896354675</v>
+        <v>3.181671218044357e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.1008875444531441</v>
+        <v>9.683161624707282e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.01374497450888157</v>
+        <v>2.310462150489911e-05</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.05093077570199966</v>
+        <v>0.0003990272816736251</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1364159137010574</v>
+        <v>9.328767191618681e-05</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.06930543482303619</v>
+        <v>7.017144525889307e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0003256802447140217</v>
+        <v>0.0001035401437547989</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.07235961407423019</v>
+        <v>7.741240551695228e-05</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.166687086224556</v>
+        <v>0.0002293998986715451</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.02098187804222107</v>
+        <v>5.489306931849569e-05</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.02081742137670517</v>
+        <v>6.981020123930648e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03889577463269234</v>
+        <v>8.869825978763402e-05</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.03918111324310303</v>
+        <v>3.770101102418266e-05</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1108218654990196</v>
+        <v>3.702152753248811e-05</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.02129963226616383</v>
+        <v>0.000292379321763292</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.06041228771209717</v>
+        <v>0.0001663491129875183</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.4024566411972046</v>
+        <v>7.597403964609839e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.09689014405012131</v>
+        <v>8.802350203040987e-05</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1639533340930939</v>
+        <v>4.904329762212001e-05</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.04101653769612312</v>
+        <v>5.080809205537662e-05</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0858953669667244</v>
+        <v>7.689833728363737e-05</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.06251165270805359</v>
+        <v>0.0001067608463927172</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.1234417632222176</v>
+        <v>5.215039891481865e-06</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.003473564516752958</v>
+        <v>4.940866347169504e-05</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0006343824788928032</v>
+        <v>2.693359783734195e-05</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1589740812778473</v>
+        <v>4.894983794656582e-05</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.004547717049717903</v>
+        <v>8.12083380878903e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.03227819502353668</v>
+        <v>2.309371848241426e-05</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.03064340353012085</v>
+        <v>8.915126272768248e-06</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01785309053957462</v>
+        <v>3.61545680789277e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.04688802734017372</v>
+        <v>7.227170135593042e-05</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.007980629801750183</v>
+        <v>9.910799417411909e-05</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.05202098935842514</v>
+        <v>3.414204911678098e-05</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.05640972033143044</v>
+        <v>6.764921636204235e-06</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.3797924816608429</v>
+        <v>0.0001010563937597908</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.06327414512634277</v>
+        <v>0.0001817449956433848</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.2671300172805786</v>
+        <v>5.930887709837407e-06</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.008275751024484634</v>
+        <v>0.0001789749367162585</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.1044435799121857</v>
+        <v>0.0001893126755021513</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.04177083075046539</v>
+        <v>8.104082371573895e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.1237935721874237</v>
+        <v>5.652600520988926e-07</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.03288403153419495</v>
+        <v>4.486743637244217e-05</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02454887703061104</v>
+        <v>1.038693153532222e-05</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.1477170586585999</v>
+        <v>3.838360134977847e-05</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.001095554791390896</v>
+        <v>7.23675184417516e-05</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.04000792652368546</v>
+        <v>3.436733095441014e-06</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.005009297747164965</v>
+        <v>1.833466012612917e-05</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0190395675599575</v>
+        <v>1.121325476560742e-05</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.05988094210624695</v>
+        <v>5.940938353887759e-05</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1896896660327911</v>
+        <v>2.385974403296132e-05</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.03505682945251465</v>
+        <v>0.0001651606580708176</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.04315121844410896</v>
+        <v>5.789603164885193e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.1360617578029633</v>
+        <v>0.000230477744480595</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.2462548762559891</v>
+        <v>0.0001840328477555886</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.08402522653341293</v>
+        <v>0.0001161866748589091</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.03188330680131912</v>
+        <v>8.480995893478394e-05</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.04983577877283096</v>
+        <v>0.0002449004969093949</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.04317789152264595</v>
+        <v>9.581618360243738e-05</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01724758371710777</v>
+        <v>5.250086542218924e-05</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.006215907633304596</v>
+        <v>1.087971850211034e-05</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.03647523373365402</v>
+        <v>6.45499094389379e-05</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0599883496761322</v>
+        <v>0.0001112806785386056</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.1361452043056488</v>
+        <v>2.912268610089086e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0585385300219059</v>
+        <v>0.0001123350957641378</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.009468682110309601</v>
+        <v>2.916457378887571e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.1420603692531586</v>
+        <v>5.72453391214367e-05</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.06371676176786423</v>
+        <v>5.687185876013245e-06</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02239714562892914</v>
+        <v>2.883636807382572e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.08461207896471024</v>
+        <v>1.783495463314466e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01200518570840359</v>
+        <v>1.225905543833505e-05</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.1270100176334381</v>
+        <v>4.749064464704134e-05</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01296738442033529</v>
+        <v>8.580106623412576e-06</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.03408711031079292</v>
+        <v>4.09580570703838e-05</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.04678716138005257</v>
+        <v>4.25984944740776e-06</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.04724939167499542</v>
+        <v>8.820519724395126e-05</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.06889037787914276</v>
+        <v>0.0001443234941689298</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.1114434450864792</v>
+        <v>3.348636892042123e-05</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.03296976163983345</v>
+        <v>2.815160041791387e-05</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.003169748932123184</v>
+        <v>4.217611058265902e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0941135585308075</v>
+        <v>6.492719694506377e-05</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.06582099944353104</v>
+        <v>0.0001051554208970629</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.1009311676025391</v>
+        <v>1.436091679352103e-05</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.01896912232041359</v>
+        <v>4.789172635355499e-06</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.006895553320646286</v>
+        <v>9.988304373109713e-05</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.01556457206606865</v>
+        <v>8.178957068594173e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.2135839760303497</v>
+        <v>4.339326551416889e-05</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0363469086587429</v>
+        <v>4.098680437891744e-05</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.03561803698539734</v>
+        <v>3.943515184801072e-05</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.06976012140512466</v>
+        <v>1.371327743981965e-05</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.06056594103574753</v>
+        <v>2.488034078851342e-05</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.02559908106923103</v>
+        <v>9.084574412554502e-05</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.02924424782395363</v>
+        <v>9.195864549838006e-07</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.004254604689776897</v>
+        <v>6.946093344595283e-05</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.003404655959457159</v>
+        <v>3.66692001989577e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.1028752848505974</v>
+        <v>1.152216282207519e-05</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.008141505531966686</v>
+        <v>4.710896610049531e-05</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.006974426098167896</v>
+        <v>2.822270653268788e-05</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.1212241351604462</v>
+        <v>4.945281762047671e-05</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.03044899366796017</v>
+        <v>6.353040225803852e-05</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.06183411553502083</v>
+        <v>1.6806519624879e-06</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.009707706049084663</v>
+        <v>2.674452389328508e-06</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.01961120590567589</v>
+        <v>2.730073720158543e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.02590527199208736</v>
+        <v>3.934617052436806e-05</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.006243789102882147</v>
+        <v>1.865004378487356e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.1157243102788925</v>
+        <v>0.000108752072264906</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.06762351095676422</v>
+        <v>2.804469841066748e-05</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.08667218685150146</v>
+        <v>1.115277700591832e-05</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.05186716094613075</v>
+        <v>8.358462218893692e-05</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.004758981987833977</v>
+        <v>0.0001321167219430208</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.01486058160662651</v>
+        <v>1.016870737657882e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.008834041655063629</v>
+        <v>4.249820995028131e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.1040165424346924</v>
+        <v>0.000176346700754948</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.05760622397065163</v>
+        <v>2.889702955144458e-05</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.01111442223191261</v>
+        <v>2.549450618971605e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.04122239351272583</v>
+        <v>1.386293661198579e-06</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.1826295852661133</v>
+        <v>0.0001376419386360794</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.02495185099542141</v>
+        <v>0.0003150927368551493</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.1476719528436661</v>
+        <v>0.0001302893506363034</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.02758730016648769</v>
+        <v>9.848846093518659e-05</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.08384547382593155</v>
+        <v>7.349438419623766e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.09547001123428345</v>
+        <v>5.020857861381955e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.09708581119775772</v>
+        <v>3.388127151993103e-05</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.1363311409950256</v>
+        <v>9.083081386052072e-05</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.03772749006748199</v>
+        <v>9.934198169503361e-05</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.1922524273395538</v>
+        <v>5.643557233270258e-05</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.06266646087169647</v>
+        <v>4.818571687792428e-05</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0514879897236824</v>
+        <v>9.485910413786769e-05</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0800662636756897</v>
+        <v>6.436021067202091e-07</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.02852815017104149</v>
+        <v>2.05203250516206e-05</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.1261703073978424</v>
+        <v>8.140776481013745e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3416 +4987,3416 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.261304275132716e-05</v>
+        <v>0.08997548371553421</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0002568014897406101</v>
+        <v>1.15679395198822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001706724433461204</v>
+        <v>0.103847861289978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00133678549900651</v>
+        <v>0.6582435965538025</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003870748623739928</v>
+        <v>0.06920356303453445</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004119345685467124</v>
+        <v>0.2171415388584137</v>
       </c>
       <c r="G9" t="n">
-        <v>2.376473275944591e-06</v>
+        <v>0.02099280059337616</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003020634176209569</v>
+        <v>0.07784314453601837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002224498166469857</v>
+        <v>0.06795477867126465</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002337310725124553</v>
+        <v>0.195194199681282</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003110119723714888</v>
+        <v>0.864547073841095</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001056633191183209</v>
+        <v>0.02308953553438187</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001292482600547373</v>
+        <v>0.6232105493545532</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008149966597557068</v>
+        <v>0.05902289599180222</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002564818132668734</v>
+        <v>0.2939561009407043</v>
       </c>
       <c r="P9" t="n">
-        <v>8.440838428214192e-06</v>
+        <v>0.009552836418151855</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0008672472322359681</v>
+        <v>0.1121358200907707</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0001622636773390695</v>
+        <v>0.1584781557321548</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0001586783037055284</v>
+        <v>0.03312503546476364</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0002318947954336181</v>
+        <v>0.1354034543037415</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0001856275775935501</v>
+        <v>0.02540549635887146</v>
       </c>
       <c r="V9" t="n">
-        <v>3.423210000619292e-05</v>
+        <v>0.1470122486352921</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0007932187290862203</v>
+        <v>0.09137284010648727</v>
       </c>
       <c r="X9" t="n">
-        <v>9.324926941189915e-05</v>
+        <v>0.06875010579824448</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.900557203451172e-05</v>
+        <v>0.05965088307857513</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0004801925679203123</v>
+        <v>0.11574437469244</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.817587124416605e-05</v>
+        <v>0.1001925766468048</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0002529461344238371</v>
+        <v>0.03092126548290253</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0002072696515824646</v>
+        <v>0.1471665352582932</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.119991641957313e-05</v>
+        <v>0.0817672461271286</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0002736234164331108</v>
+        <v>0.0744505375623703</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0001208765606861562</v>
+        <v>0.01396300364285707</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0001317355345236138</v>
+        <v>0.07613180577754974</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0002108568733092397</v>
+        <v>0.03625785559415817</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0002821062807925045</v>
+        <v>0.02078508213162422</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.723203063709661e-05</v>
+        <v>0.1218969821929932</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0001437531318515539</v>
+        <v>0.04300966113805771</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001357897999696434</v>
+        <v>0.1431825906038284</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.432572662452003e-05</v>
+        <v>0.00147554068826139</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0003961042675655335</v>
+        <v>0.06776319444179535</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0001839998149080202</v>
+        <v>0.02364145591855049</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0002068790199700743</v>
+        <v>0.1338958889245987</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.951687969878549e-06</v>
+        <v>0.02829652279615402</v>
       </c>
       <c r="AR9" t="n">
-        <v>8.961442654253915e-05</v>
+        <v>0.1097920686006546</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.370270082494244e-05</v>
+        <v>0.08563712239265442</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.359102215152234e-05</v>
+        <v>0.1044545695185661</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0001263300655409694</v>
+        <v>0.7708972692489624</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.740440686466172e-05</v>
+        <v>0.05029379948973656</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0006391140632331371</v>
+        <v>0.07905593514442444</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.074832835001871e-05</v>
+        <v>0.1685528755187988</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0002634076518006623</v>
+        <v>0.03512432426214218</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8.990911010187119e-05</v>
+        <v>0.01470302045345306</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.926687713828869e-05</v>
+        <v>0.05243999511003494</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0002066324232146144</v>
+        <v>0.1206369772553444</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0001840482582338154</v>
+        <v>0.06987171620130539</v>
       </c>
       <c r="BD9" t="n">
-        <v>8.30125791253522e-05</v>
+        <v>0.193735659122467</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.0001900323841255158</v>
+        <v>0.1785349100828171</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0006644631503149867</v>
+        <v>0.1493870615959167</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0003312748740427196</v>
+        <v>0.2918677031993866</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.0002216163265984505</v>
+        <v>0.1227160468697548</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001891016436275095</v>
+        <v>0.09906609356403351</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0001569611631566659</v>
+        <v>0.201215073466301</v>
       </c>
       <c r="BK9" t="n">
-        <v>9.209372365148738e-06</v>
+        <v>0.01813588850200176</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.0002375360345467925</v>
+        <v>0.1230483800172806</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.000120279990369454</v>
+        <v>0.1585643440485001</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.000151571657625027</v>
+        <v>0.07514667510986328</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.345739241922274e-05</v>
+        <v>0.05937808752059937</v>
       </c>
       <c r="BP9" t="n">
-        <v>6.168171239551157e-05</v>
+        <v>0.04977705329656601</v>
       </c>
       <c r="BQ9" t="n">
-        <v>8.451806206721812e-05</v>
+        <v>0.03799596428871155</v>
       </c>
       <c r="BR9" t="n">
-        <v>6.578143802471459e-05</v>
+        <v>0.03826937824487686</v>
       </c>
       <c r="BS9" t="n">
-        <v>6.395741365849972e-05</v>
+        <v>0.003082389011979103</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.94698428560514e-06</v>
+        <v>0.02636671625077724</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.0001422093191649765</v>
+        <v>0.1171811819076538</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0001251711219083518</v>
+        <v>0.3904514908790588</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.0001702019653748721</v>
+        <v>0.05474942922592163</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0006538555026054382</v>
+        <v>0.09678816795349121</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0001181488041765988</v>
+        <v>0.09575688093900681</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0002803619718179107</v>
+        <v>0.1241270899772644</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.651601582532749e-05</v>
+        <v>0.01123357564210892</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0002332804724574089</v>
+        <v>0.0155233945697546</v>
       </c>
       <c r="CC9" t="n">
-        <v>7.157251820899546e-05</v>
+        <v>0.1708547174930573</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.0002049130416708067</v>
+        <v>0.07330568879842758</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0001123481779359281</v>
+        <v>0.1960849165916443</v>
       </c>
       <c r="CF9" t="n">
-        <v>8.286413503810763e-05</v>
+        <v>0.07038938254117966</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0002824521798174828</v>
+        <v>0.08511055260896683</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0001778399746399373</v>
+        <v>0.083542600274086</v>
       </c>
       <c r="CI9" t="n">
-        <v>5.879547461518086e-05</v>
+        <v>0.01707609929144382</v>
       </c>
       <c r="CJ9" t="n">
-        <v>3.186568574164994e-05</v>
+        <v>0.05877265334129333</v>
       </c>
       <c r="CK9" t="n">
-        <v>6.244788528420031e-05</v>
+        <v>0.006366695277392864</v>
       </c>
       <c r="CL9" t="n">
-        <v>7.934630411909893e-05</v>
+        <v>0.05859801918268204</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.0001389285607729107</v>
+        <v>0.1139376014471054</v>
       </c>
       <c r="CN9" t="n">
-        <v>9.09839291125536e-05</v>
+        <v>0.03579162433743477</v>
       </c>
       <c r="CO9" t="n">
-        <v>8.219156734412536e-05</v>
+        <v>0.0475713312625885</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0005502522108145058</v>
+        <v>0.2015437036752701</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0002793490129988641</v>
+        <v>0.08413589745759964</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0005453496123664081</v>
+        <v>0.1336808800697327</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.0001274538517463952</v>
+        <v>0.1449456810951233</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0001738178834784776</v>
+        <v>0.2079987525939941</v>
       </c>
       <c r="CU9" t="n">
-        <v>8.11295467428863e-06</v>
+        <v>0.004520618356764317</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.0002217951841885224</v>
+        <v>0.07161751389503479</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.000161279269377701</v>
+        <v>0.1678473502397537</v>
       </c>
       <c r="CX9" t="n">
-        <v>9.599174518371001e-05</v>
+        <v>0.08427726477384567</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0002658519078977406</v>
+        <v>0.1298496574163437</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.000176204601302743</v>
+        <v>0.07694432139396667</v>
       </c>
       <c r="DA9" t="n">
-        <v>5.058487295173109e-05</v>
+        <v>0.03025693818926811</v>
       </c>
       <c r="DB9" t="n">
-        <v>5.251968104857951e-06</v>
+        <v>0.06716178357601166</v>
       </c>
       <c r="DC9" t="n">
-        <v>9.86473387456499e-05</v>
+        <v>0.03780999034643173</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.0001025975216180086</v>
+        <v>0.02538611739873886</v>
       </c>
       <c r="DE9" t="n">
-        <v>8.345920650754124e-05</v>
+        <v>0.007740095257759094</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0001227784086950123</v>
+        <v>0.2363511025905609</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0002722087956499308</v>
+        <v>0.01445748377591372</v>
       </c>
       <c r="DH9" t="n">
-        <v>5.037792288931087e-05</v>
+        <v>0.2974465787410736</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0003956027794629335</v>
+        <v>0.1285449266433716</v>
       </c>
       <c r="DJ9" t="n">
-        <v>2.684740320546553e-05</v>
+        <v>0.1537384688854218</v>
       </c>
       <c r="DK9" t="n">
-        <v>8.746002276893705e-05</v>
+        <v>0.092966228723526</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0002448013983666897</v>
+        <v>0.04226754605770111</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.060156500898302e-05</v>
+        <v>0.01196192763745785</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0001621765695745125</v>
+        <v>0.1129098758101463</v>
       </c>
       <c r="DO9" t="n">
-        <v>8.266053919214755e-05</v>
+        <v>0.08399096876382828</v>
       </c>
       <c r="DP9" t="n">
-        <v>9.995647269533947e-05</v>
+        <v>0.0494082123041153</v>
       </c>
       <c r="DQ9" t="n">
-        <v>9.631144348531961e-05</v>
+        <v>0.08949765563011169</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0004267190233804286</v>
+        <v>0.09322593361139297</v>
       </c>
       <c r="DS9" t="n">
-        <v>8.874281775206327e-06</v>
+        <v>0.1069483384490013</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0001603687851456925</v>
+        <v>0.01271151565015316</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0001980983215617016</v>
+        <v>0.01379648968577385</v>
       </c>
       <c r="DV9" t="n">
-        <v>8.750679262448102e-05</v>
+        <v>0.1244880706071854</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.0001035688183037564</v>
+        <v>0.02273738756775856</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0002577925624791533</v>
+        <v>0.02970756590366364</v>
       </c>
       <c r="DY9" t="n">
-        <v>3.220528014935553e-05</v>
+        <v>0.1266438663005829</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0001634205837035552</v>
+        <v>0.01799977011978626</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0001021953503368422</v>
+        <v>0.1112480312585831</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.085309486370534e-05</v>
+        <v>0.09450477361679077</v>
       </c>
       <c r="EC9" t="n">
-        <v>7.590868335682899e-06</v>
+        <v>0.03585213795304298</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0001539657241664827</v>
+        <v>0.009244201704859734</v>
       </c>
       <c r="EE9" t="n">
-        <v>3.512598050292581e-05</v>
+        <v>0.008024320937693119</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.252692087902687e-05</v>
+        <v>0.03296957910060883</v>
       </c>
       <c r="EG9" t="n">
-        <v>8.558334957342595e-05</v>
+        <v>0.1092953830957413</v>
       </c>
       <c r="EH9" t="n">
-        <v>9.776212391443551e-05</v>
+        <v>0.04265301674604416</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0004485126701183617</v>
+        <v>0.03478123620152473</v>
       </c>
       <c r="EJ9" t="n">
-        <v>5.852088361280039e-05</v>
+        <v>0.008504138328135014</v>
       </c>
       <c r="EK9" t="n">
-        <v>3.989326069131494e-05</v>
+        <v>0.03117844648659229</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.641665585339069e-05</v>
+        <v>0.02351208962500095</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.0001742555759847164</v>
+        <v>0.02374177426099777</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.000138057948788628</v>
+        <v>0.03158041462302208</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.0002307410322828218</v>
+        <v>0.0213932953774929</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.0001276397815672681</v>
+        <v>0.1447483599185944</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.0001215510565089062</v>
+        <v>0.03137122094631195</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.0001294385001529008</v>
+        <v>0.1217961758375168</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0001028007391141728</v>
+        <v>0.1025529727339745</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.0001524694380350411</v>
+        <v>0.2589932084083557</v>
       </c>
       <c r="EU9" t="n">
-        <v>3.457966886344366e-05</v>
+        <v>0.1480181217193604</v>
       </c>
       <c r="EV9" t="n">
-        <v>5.815776239614934e-05</v>
+        <v>0.06798567622900009</v>
       </c>
       <c r="EW9" t="n">
-        <v>5.653096741298214e-05</v>
+        <v>0.02345471829175949</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.0002051735209533945</v>
+        <v>0.05374987423419952</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.0001161299005616456</v>
+        <v>0.1676451414823532</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.0001026223471853882</v>
+        <v>0.05447161942720413</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.0002342995721846819</v>
+        <v>0.1156091541051865</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0002223565970780328</v>
+        <v>0.07650930434465408</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.000102893405710347</v>
+        <v>0.03642376139760017</v>
       </c>
       <c r="FD9" t="n">
-        <v>4.815246938960627e-07</v>
+        <v>0.09392347186803818</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0001194751384900883</v>
+        <v>0.02336199767887592</v>
       </c>
       <c r="FF9" t="n">
-        <v>4.471342981560156e-05</v>
+        <v>0.05820013955235481</v>
       </c>
       <c r="FG9" t="n">
-        <v>8.651729149278253e-05</v>
+        <v>0.02229470014572144</v>
       </c>
       <c r="FH9" t="n">
-        <v>4.494580207392573e-05</v>
+        <v>0.09631119668483734</v>
       </c>
       <c r="FI9" t="n">
-        <v>3.130841651000082e-05</v>
+        <v>0.03044899553060532</v>
       </c>
       <c r="FJ9" t="n">
-        <v>7.810494935256429e-07</v>
+        <v>0.07229461520910263</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.110289122152608e-05</v>
+        <v>0.06761379539966583</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.0001820350298658013</v>
+        <v>0.03144336119294167</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.782486287993379e-05</v>
+        <v>0.04448575153946877</v>
       </c>
       <c r="FN9" t="n">
-        <v>6.469526852015406e-05</v>
+        <v>0.01129915844649076</v>
       </c>
       <c r="FO9" t="n">
-        <v>8.490459549648222e-06</v>
+        <v>0.01192854065448046</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.0002632527612149715</v>
+        <v>0.001693788915872574</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.0002339097118237987</v>
+        <v>0.008375413715839386</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.0002092501090373844</v>
+        <v>0.2350569069385529</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0004050680727232248</v>
+        <v>0.1435184180736542</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0001359500311082229</v>
+        <v>0.0478346012532711</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.0001888487749965861</v>
+        <v>0.0211084745824337</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.890923133236356e-05</v>
+        <v>0.06600868701934814</v>
       </c>
       <c r="FW9" t="n">
-        <v>6.800808478146791e-05</v>
+        <v>0.0605328269302845</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0003001380246132612</v>
+        <v>0.06039654463529587</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.0001851265988079831</v>
+        <v>0.1060654297471046</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0001636570086702704</v>
+        <v>0.06648171693086624</v>
       </c>
       <c r="GA9" t="n">
-        <v>5.938421963946894e-05</v>
+        <v>0.0148628382012248</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0001731147640384734</v>
+        <v>0.02181955054402351</v>
       </c>
       <c r="GC9" t="n">
-        <v>8.626726776128635e-05</v>
+        <v>0.1707782000303268</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.0002046147565124556</v>
+        <v>0.1737635284662247</v>
       </c>
       <c r="GE9" t="n">
-        <v>4.371941031422466e-06</v>
+        <v>0.3744415938854218</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0001317322894465178</v>
+        <v>0.08553112298250198</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0002175940171582624</v>
+        <v>0.04158582165837288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1325615346431732</v>
+        <v>0.008429328911006451</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1341606974601746</v>
+        <v>0.3957622051239014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07181603461503983</v>
+        <v>0.04438538104295731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1722534745931625</v>
+        <v>0.2953601479530334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1389790773391724</v>
+        <v>0.188230112195015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09165783226490021</v>
+        <v>0.1332545578479767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06435230374336243</v>
+        <v>0.1276305466890335</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3412488400936127</v>
+        <v>0.09927080571651459</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02888628095388412</v>
+        <v>0.07978633046150208</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03714001178741455</v>
+        <v>0.01304169371724129</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05747782811522484</v>
+        <v>0.3465816974639893</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01904767379164696</v>
+        <v>0.05583749711513519</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1234127134084702</v>
+        <v>0.245849072933197</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02590501494705677</v>
+        <v>0.2078965753316879</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0109148845076561</v>
+        <v>0.1482371091842651</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1832904517650604</v>
+        <v>0.03384116291999817</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.422204852104187</v>
+        <v>0.0249582938849926</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04960580915212631</v>
+        <v>0.05901647731661797</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1477439999580383</v>
+        <v>0.025348836556077</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05248936265707016</v>
+        <v>0.03319138288497925</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03671776875853539</v>
+        <v>0.0205821730196476</v>
       </c>
       <c r="V10" t="n">
-        <v>0.06432459503412247</v>
+        <v>0.06385506689548492</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2236496657133102</v>
+        <v>0.09119900315999985</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1496902406215668</v>
+        <v>0.02306817471981049</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03528383374214172</v>
+        <v>0.03579134494066238</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1476682722568512</v>
+        <v>0.01039371639490128</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01447151880711317</v>
+        <v>0.008046926930546761</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08950483798980713</v>
+        <v>0.03819636255502701</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01603302359580994</v>
+        <v>0.02502340450882912</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06825917959213257</v>
+        <v>0.0258569810539484</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.07934226840734482</v>
+        <v>0.03105966374278069</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04897866025567055</v>
+        <v>0.01730479300022125</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.01287477090954781</v>
+        <v>0.008232492953538895</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.09858746826648712</v>
+        <v>0.03598050400614738</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01390266604721546</v>
+        <v>0.05079012364149094</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.009733477607369423</v>
+        <v>0.05423007532954216</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01239845529198647</v>
+        <v>0.03387720137834549</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.04595941305160522</v>
+        <v>0.09647420793771744</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.04759132117033005</v>
+        <v>0.03115599043667316</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.01685550436377525</v>
+        <v>0.01672058925032616</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.1332777440547943</v>
+        <v>0.008905012160539627</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03918337449431419</v>
+        <v>0.05271907150745392</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.02384769730269909</v>
+        <v>0.01327121164649725</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.03939340636134148</v>
+        <v>0.06899232417345047</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.01660038158297539</v>
+        <v>0.003798599354922771</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.03356198966503143</v>
+        <v>0.02955295145511627</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.06439216434955597</v>
+        <v>0.3034734725952148</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.05648292601108551</v>
+        <v>0.01309499610215425</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.08749419450759888</v>
+        <v>0.1478096693754196</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.007390463724732399</v>
+        <v>0.1249841302633286</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.02504047565162182</v>
+        <v>0.03178978711366653</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.07944058626890182</v>
+        <v>0.01036706753075123</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2765301764011383</v>
+        <v>0.02542684972286224</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.004363557323813438</v>
+        <v>0.02551585808396339</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.02801749110221863</v>
+        <v>0.04007384181022644</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.04444386810064316</v>
+        <v>0.1066266521811485</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.09242703765630722</v>
+        <v>0.03670872375369072</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.03575019538402557</v>
+        <v>0.04887903109192848</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.00347790913656354</v>
+        <v>0.1629660725593567</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01468457654118538</v>
+        <v>0.0544116273522377</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.105705738067627</v>
+        <v>0.04516196250915527</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01035067718476057</v>
+        <v>0.02357471361756325</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.01354120299220085</v>
+        <v>0.0005470328032970428</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01924731396138668</v>
+        <v>0.07183847576379776</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.08037438243627548</v>
+        <v>0.03614643961191177</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.07444554567337036</v>
+        <v>3.467965871095657e-05</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.03712764382362366</v>
+        <v>0.06826527416706085</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0534423291683197</v>
+        <v>0.05413851141929626</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.04498794674873352</v>
+        <v>0.008373133838176727</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.08297780156135559</v>
+        <v>0.005745014175772667</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.03886209800839424</v>
+        <v>0.002634142991155386</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.00193761195987463</v>
+        <v>0.005688955076038837</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.04375940933823586</v>
+        <v>0.03741390258073807</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0831432119011879</v>
+        <v>0.1731658130884171</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01710307784378529</v>
+        <v>0.01858343929052353</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.04010629281401634</v>
+        <v>0.0777171328663826</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03747107833623886</v>
+        <v>0.06352365761995316</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01218097098171711</v>
+        <v>0.02939945459365845</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.05333529412746429</v>
+        <v>0.04521843791007996</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.1770698428153992</v>
+        <v>0.01898651383817196</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.03123309835791588</v>
+        <v>0.0236552320420742</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.02881380543112755</v>
+        <v>0.03448443859815598</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.006541618146002293</v>
+        <v>0.03930399566888809</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.01702387817203999</v>
+        <v>0.01163506042212248</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.03575091063976288</v>
+        <v>0.05719022825360298</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01668345369398594</v>
+        <v>0.006987798027694225</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0279177650809288</v>
+        <v>0.03561276197433472</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.02343648858368397</v>
+        <v>0.007351289503276348</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.06759645044803619</v>
+        <v>0.01802259311079979</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.002618547528982162</v>
+        <v>0.003018485382199287</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.02819879353046417</v>
+        <v>0.0436132438480854</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.03948594629764557</v>
+        <v>0.03925419598817825</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.01349982433021069</v>
+        <v>0.01458512526005507</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.02462033741176128</v>
+        <v>0.008515097200870514</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1557693034410477</v>
+        <v>0.08429094403982162</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.05697334557771683</v>
+        <v>0.005571629852056503</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.05578168109059334</v>
+        <v>0.09586174786090851</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.006840442772954702</v>
+        <v>0.05594231560826302</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.02991184219717979</v>
+        <v>0.008432157337665558</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.03845878690481186</v>
+        <v>0.02744102291762829</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.002744397614151239</v>
+        <v>0.02940187603235245</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0303590539842844</v>
+        <v>0.01772833615541458</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0317060649394989</v>
+        <v>0.0538838654756546</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.00342330546118319</v>
+        <v>0.02745296061038971</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01991211622953415</v>
+        <v>0.04505589604377747</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.02291023731231689</v>
+        <v>0.005418460816144943</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.07988343387842178</v>
+        <v>0.01828075014054775</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.003277099225670099</v>
+        <v>0.01193362288177013</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.1265852153301239</v>
+        <v>0.0227029100060463</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.1039500534534454</v>
+        <v>0.01484110578894615</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.004777258262038231</v>
+        <v>0.09719344228506088</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01657936722040176</v>
+        <v>0.1602008938789368</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.07633409649133682</v>
+        <v>0.04793218150734901</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.01275563985109329</v>
+        <v>0.03648204728960991</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.01584427803754807</v>
+        <v>0.08534342050552368</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.02498746477067471</v>
+        <v>0.03767608851194382</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.02245581522583961</v>
+        <v>0.01863849721848965</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01750526204705238</v>
+        <v>0.07025942206382751</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.003103264607489109</v>
+        <v>0.05421856045722961</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.02115869149565697</v>
+        <v>0.05152244120836258</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.01223941706120968</v>
+        <v>0.0757916122674942</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.02790213003754616</v>
+        <v>0.001134156249463558</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.03685720264911652</v>
+        <v>0.02086693421006203</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.04184199869632721</v>
+        <v>0.0241041574627161</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0273621492087841</v>
+        <v>0.08596711605787277</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.004439797252416611</v>
+        <v>0.03783532977104187</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.07497416436672211</v>
+        <v>0.02285583131015301</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.08868231624364853</v>
+        <v>0.03419134393334389</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0004332440439611673</v>
+        <v>0.05244814231991768</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.03563763573765755</v>
+        <v>0.04386544972658157</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01064352877438068</v>
+        <v>0.0838327631354332</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.00886978954076767</v>
+        <v>0.07078268378973007</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.01485138200223446</v>
+        <v>0.0329311192035675</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.07298096269369125</v>
+        <v>0.01252071093767881</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.003494849428534508</v>
+        <v>0.006852420046925545</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.06844998896121979</v>
+        <v>0.006947486661374569</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.004304759204387665</v>
+        <v>0.02421117946505547</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.008228762075304985</v>
+        <v>0.01560148503631353</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.06658647209405899</v>
+        <v>0.05408505350351334</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03674846142530441</v>
+        <v>0.02730771154165268</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0620284415781498</v>
+        <v>0.03087959252297878</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.03664861619472504</v>
+        <v>0.0008886675350368023</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.1299894452095032</v>
+        <v>0.003646179102361202</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.01290343888103962</v>
+        <v>0.02566622756421566</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.01992240361869335</v>
+        <v>0.005093052983283997</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.1088509038090706</v>
+        <v>0.02031906694173813</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.04489726200699806</v>
+        <v>0.002858664374798536</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.007468992844223976</v>
+        <v>0.02808396704494953</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002056685276329517</v>
+        <v>0.008403033018112183</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.04134346544742584</v>
+        <v>0.1070145666599274</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.04391183331608772</v>
+        <v>0.0006092935218475759</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.003754168748855591</v>
+        <v>0.1358470618724823</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.007250586990267038</v>
+        <v>0.04669708758592606</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.03630872815847397</v>
+        <v>0.03499986231327057</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.004780190996825695</v>
+        <v>0.02983424440026283</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.03993351012468338</v>
+        <v>0.007376995868980885</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0228990837931633</v>
+        <v>0.05187550932168961</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.007878703065216541</v>
+        <v>0.02702686563134193</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01692436262965202</v>
+        <v>0.03596629947423935</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.02707356959581375</v>
+        <v>0.02138524688780308</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.06832949817180634</v>
+        <v>0.02068667858839035</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.008447187021374702</v>
+        <v>0.01398213673382998</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.1021472811698914</v>
+        <v>0.001341254450380802</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0425196960568428</v>
+        <v>0.09344039857387543</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.04302165657281876</v>
+        <v>0.01213874015957117</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0001027863472700119</v>
+        <v>0.05251489207148552</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01118463277816772</v>
+        <v>0.04257438704371452</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.03658923879265785</v>
+        <v>0.06608027219772339</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.03878305479884148</v>
+        <v>0.0004779002629220486</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.02519604191184044</v>
+        <v>0.03536960110068321</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.006537411361932755</v>
+        <v>0.02923078462481499</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.1457847356796265</v>
+        <v>0.02569510787725449</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.01224911212921143</v>
+        <v>0.1189647614955902</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.03395479544997215</v>
+        <v>0.04132751375436783</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.05510647967457771</v>
+        <v>0.03688798472285271</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.01783684268593788</v>
+        <v>0.09314431250095367</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.009218223392963409</v>
+        <v>0.0306034442037344</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0558338537812233</v>
+        <v>0.1758018434047699</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.1454115957021713</v>
+        <v>0.01130986213684082</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.03206652402877808</v>
+        <v>0.03959622979164124</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.01089814119040966</v>
+        <v>0.0371122807264328</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.02366001158952713</v>
+        <v>0.03572015836834908</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.06160477921366692</v>
+        <v>0.03809759020805359</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.01111761294305325</v>
+        <v>0.006883874535560608</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.01716840825974941</v>
+        <v>0.1258552670478821</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.02728482894599438</v>
+        <v>0.0244066808372736</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.09180322289466858</v>
+        <v>0.1543981581926346</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.03393492847681046</v>
+        <v>0.02983886003494263</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.07292436063289642</v>
+        <v>0.02762291952967644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.813074934238102e-05</v>
+        <v>0.007457135245203972</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0002937519457191229</v>
+        <v>0.1789000481367111</v>
       </c>
       <c r="C11" t="n">
-        <v>7.262738654389977e-05</v>
+        <v>0.01601158082485199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001251418143510818</v>
+        <v>0.08351638168096542</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001134180347435176</v>
+        <v>0.02818712033331394</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002373463474214077</v>
+        <v>0.01001901365816593</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004081189399585128</v>
+        <v>0.009215174242854118</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003893191693350673</v>
+        <v>0.003787009045481682</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005827909917570651</v>
+        <v>0.02962175011634827</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001393070269841701</v>
+        <v>0.01320460718125105</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003957890148740262</v>
+        <v>0.1508117020130157</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002193031832575798</v>
+        <v>0.002616343321278691</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0006884792819619179</v>
+        <v>0.07487542182207108</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001312052248977125</v>
+        <v>0.03786699846386909</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001882854267023504</v>
+        <v>0.02444000914692879</v>
       </c>
       <c r="P11" t="n">
-        <v>0.000151200161781162</v>
+        <v>0.009911941364407539</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004799503833055496</v>
+        <v>0.03553329780697823</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0003657044435385615</v>
+        <v>0.02303017675876617</v>
       </c>
       <c r="S11" t="n">
-        <v>4.942558007314801e-05</v>
+        <v>0.003566171042621136</v>
       </c>
       <c r="T11" t="n">
-        <v>6.196025060489774e-05</v>
+        <v>0.01949814148247242</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0002061874256469309</v>
+        <v>0.005741007626056671</v>
       </c>
       <c r="V11" t="n">
-        <v>9.322958067059517e-05</v>
+        <v>0.01233848556876183</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0007638615206815302</v>
+        <v>0.002400015015155077</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0006679972284473479</v>
+        <v>0.01397731434553862</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.000526212272234261</v>
+        <v>0.01957600377500057</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0006859658169560134</v>
+        <v>0.01994599960744381</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0003318921371828765</v>
+        <v>0.01387559343129396</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0005811926093883812</v>
+        <v>0.009975298307836056</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0002872241311706603</v>
+        <v>0.01979105919599533</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0004641507985070348</v>
+        <v>0.003068311139941216</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0004487840924412012</v>
+        <v>0.01139701809734106</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0004156634968239814</v>
+        <v>0.01335688680410385</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0003554153372533619</v>
+        <v>0.001206244807690382</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.001592083834111691</v>
+        <v>0.001934826956130564</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0002567640622146428</v>
+        <v>0.0090614203363657</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0002893396886065602</v>
+        <v>0.003662290750071406</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0002676581498235464</v>
+        <v>0.01651391945779324</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.000430830375989899</v>
+        <v>0.005445914342999458</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0008601319859735668</v>
+        <v>0.001240345183759928</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0003710206947289407</v>
+        <v>0.01560288388282061</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.001529688015580177</v>
+        <v>0.02073894068598747</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.352147177793086e-05</v>
+        <v>0.01594763621687889</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9.891956869978458e-05</v>
+        <v>0.007511297706514597</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.016165151668247e-05</v>
+        <v>0.007206584792584181</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0001690892822807655</v>
+        <v>0.006971886847168207</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0004489131097216159</v>
+        <v>0.005591542925685644</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001313207321800292</v>
+        <v>0.1085286065936089</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.000452290871180594</v>
+        <v>0.02285033278167248</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.000219537498196587</v>
+        <v>0.03107428923249245</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0006603111978620291</v>
+        <v>0.00535159558057785</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.001272332621738315</v>
+        <v>0.01861170865595341</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0002020210959017277</v>
+        <v>0.00582207553088665</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.00152241054456681</v>
+        <v>0.01702924072742462</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0002204117918154225</v>
+        <v>0.0004066701512783766</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0002616127021610737</v>
+        <v>0.008337787352502346</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0001646150922169909</v>
+        <v>0.02154269255697727</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0002951674978248775</v>
+        <v>0.04194677993655205</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.001200538594275713</v>
+        <v>0.006187858060002327</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.000222898946958594</v>
+        <v>0.03167171776294708</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.511615118943155e-05</v>
+        <v>0.00877456646412611</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.001086735865101218</v>
+        <v>0.009153628721833229</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001527440152131021</v>
+        <v>0.02316731214523315</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0007375448476523161</v>
+        <v>0.01554322056472301</v>
       </c>
       <c r="BL11" t="n">
-        <v>6.333625788101926e-05</v>
+        <v>0.005282478872686625</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0002092641370836645</v>
+        <v>0.01339435670524836</v>
       </c>
       <c r="BN11" t="n">
-        <v>4.703976446762681e-05</v>
+        <v>0.0111958272755146</v>
       </c>
       <c r="BO11" t="n">
-        <v>7.566061685793102e-05</v>
+        <v>0.003093198407441378</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.000215700885746628</v>
+        <v>0.01907682418823242</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0001537295611342415</v>
+        <v>0.016643226146698</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.001419616397470236</v>
+        <v>0.01704474166035652</v>
       </c>
       <c r="BS11" t="n">
-        <v>4.111052840016782e-05</v>
+        <v>0.007429727353155613</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0005724950460717082</v>
+        <v>0.007602252066135406</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0002198623842559755</v>
+        <v>0.009706303477287292</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0002202248142566532</v>
+        <v>0.05815840512514114</v>
       </c>
       <c r="BW11" t="n">
-        <v>3.582001954782754e-05</v>
+        <v>0.01123555563390255</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0002366568078286946</v>
+        <v>0.0123844500631094</v>
       </c>
       <c r="BY11" t="n">
-        <v>3.073374682571739e-05</v>
+        <v>0.003525835927575827</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.001228897948749363</v>
+        <v>0.015684949234128</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0005168022471480072</v>
+        <v>0.007344184443354607</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.001216751174069941</v>
+        <v>0.0002481159754097462</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0002926283050328493</v>
+        <v>0.002300925087183714</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0002863294212147593</v>
+        <v>0.006937652360647917</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0001754714758135378</v>
+        <v>0.03152467310428619</v>
       </c>
       <c r="CF11" t="n">
-        <v>7.435024599544704e-05</v>
+        <v>0.008628075011074543</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0003115496365353465</v>
+        <v>0.009726807475090027</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0004732627130579203</v>
+        <v>0.007110810372978449</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.000266885559540242</v>
+        <v>0.006233538966625929</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2.716976814554073e-05</v>
+        <v>0.004039891064167023</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.0006897349958308041</v>
+        <v>0.00515745347365737</v>
       </c>
       <c r="CL11" t="n">
-        <v>9.816816600505263e-06</v>
+        <v>0.01028784271329641</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0007727895863354206</v>
+        <v>0.0388002060353756</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0002584473695605993</v>
+        <v>0.005622568540275097</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0003048017388209701</v>
+        <v>0.003168096533045173</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.000343005929607898</v>
+        <v>0.02707593888044357</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0003611043794080615</v>
+        <v>0.03233625739812851</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0008579363930039108</v>
+        <v>0.03689562529325485</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0005807839334011078</v>
+        <v>0.01943729817867279</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0004267361655365676</v>
+        <v>0.01860949583351612</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0006954882992431521</v>
+        <v>0.02130999229848385</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0003624843375291675</v>
+        <v>0.004158198833465576</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0002962843864224851</v>
+        <v>0.03214510902762413</v>
       </c>
       <c r="CX11" t="n">
-        <v>2.936968667199835e-05</v>
+        <v>0.0134529173374176</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0001776544959284365</v>
+        <v>0.01587454602122307</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0003197486512362957</v>
+        <v>0.007989769801497459</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0002757520123850554</v>
+        <v>0.006141716614365578</v>
       </c>
       <c r="DB11" t="n">
-        <v>6.651924923062325e-05</v>
+        <v>0.003948039840906858</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0009112065308727324</v>
+        <v>0.00747004384174943</v>
       </c>
       <c r="DD11" t="n">
-        <v>8.380208601010963e-05</v>
+        <v>0.009976268745958805</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.001555557013489306</v>
+        <v>0.01976916939020157</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001711537013761699</v>
+        <v>0.02287727408111095</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0004728484200313687</v>
+        <v>0.0003236717311665416</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0002571376680862159</v>
+        <v>0.03322626277804375</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0007330761291086674</v>
+        <v>0.02195900119841099</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0005516510573215783</v>
+        <v>0.01395484711974859</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0001584672427270561</v>
+        <v>0.01629623398184776</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0002512054343242198</v>
+        <v>0.002597369253635406</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.000187823548913002</v>
+        <v>0.01930746249854565</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0002708371612243354</v>
+        <v>0.0142721738666296</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0005538017139770091</v>
+        <v>0.008195037022233009</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0002489462494850159</v>
+        <v>0.001989349024370313</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0001339945010840893</v>
+        <v>0.02384187094867229</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0003638430789578706</v>
+        <v>0.0152739156037569</v>
       </c>
       <c r="DS11" t="n">
-        <v>5.496973608387634e-05</v>
+        <v>0.008932309225201607</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0006686996784992516</v>
+        <v>0.0003737462684512138</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0004095537588000298</v>
+        <v>0.007381696254014969</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.000132359069539234</v>
+        <v>0.005260864272713661</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0001603260170668364</v>
+        <v>0.007432731334120035</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0003576395392883569</v>
+        <v>0.02481084503233433</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0002736780152190477</v>
+        <v>0.01493062172085047</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0003307145088911057</v>
+        <v>0.008658681996166706</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0004518544883467257</v>
+        <v>0.01851237192749977</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0004131238092668355</v>
+        <v>0.00132352951914072</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0001018155599012971</v>
+        <v>0.02093680575489998</v>
       </c>
       <c r="ED11" t="n">
-        <v>6.336037040455267e-05</v>
+        <v>0.005204874556511641</v>
       </c>
       <c r="EE11" t="n">
-        <v>8.751704444875941e-05</v>
+        <v>0.02004867978394032</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.00105701747816056</v>
+        <v>0.02558061107993126</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0005980468122288585</v>
+        <v>0.03318234533071518</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0002258343156427145</v>
+        <v>0.02101062051951885</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0004676891840063035</v>
+        <v>0.01923731528222561</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0002514833468012512</v>
+        <v>0.01636992394924164</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0001016717578750104</v>
+        <v>0.0001111488090828061</v>
       </c>
       <c r="EL11" t="n">
-        <v>2.521888563933317e-05</v>
+        <v>0.005599417258054018</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.000976281356997788</v>
+        <v>0.0009817009558901191</v>
       </c>
       <c r="EN11" t="n">
-        <v>6.153813592391089e-05</v>
+        <v>0.005208642687648535</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0001084726973203942</v>
+        <v>0.003229199443012476</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0001641125418245792</v>
+        <v>0.0293596163392067</v>
       </c>
       <c r="EQ11" t="n">
-        <v>7.753657700959593e-05</v>
+        <v>0.00994175486266613</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003811070928350091</v>
+        <v>0.01225590333342552</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.000764820259064436</v>
+        <v>0.01012139953672886</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0001502365339547396</v>
+        <v>0.0005130477948114276</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0006321556866168976</v>
+        <v>0.01462787669152021</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0003136598388664424</v>
+        <v>0.003900503739714622</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.0002329854178242385</v>
+        <v>0.001331477891653776</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0003388010081835091</v>
+        <v>0.01007772795855999</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0003605599922593683</v>
+        <v>0.03308990597724915</v>
       </c>
       <c r="EZ11" t="n">
-        <v>3.866502811433747e-05</v>
+        <v>0.009763605892658234</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0003942397597711533</v>
+        <v>0.01053183153271675</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0006672267918474972</v>
+        <v>0.008438117802143097</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0003135279985144734</v>
+        <v>0.004962848033756018</v>
       </c>
       <c r="FD11" t="n">
-        <v>3.342422132845968e-06</v>
+        <v>0.003747751004993916</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.001025188830681145</v>
+        <v>0.004271337762475014</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0001927465491462499</v>
+        <v>0.01226284727454185</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0001240674464497715</v>
+        <v>0.006313055753707886</v>
       </c>
       <c r="FH11" t="n">
-        <v>2.606355701573193e-05</v>
+        <v>0.01239627413451672</v>
       </c>
       <c r="FI11" t="n">
-        <v>2.427112485747784e-05</v>
+        <v>0.01507068518549204</v>
       </c>
       <c r="FJ11" t="n">
-        <v>2.518687688279897e-05</v>
+        <v>0.01655486039817333</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.000976981595158577</v>
+        <v>0.0227042268961668</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0008663811022415757</v>
+        <v>0.008884364739060402</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0002061511477222666</v>
+        <v>0.005068022757768631</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0003128448151983321</v>
+        <v>0.0009955607820302248</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0003657523193396628</v>
+        <v>0.001048322301357985</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0006424386519938707</v>
+        <v>0.02583687752485275</v>
       </c>
       <c r="FQ11" t="n">
-        <v>8.959650585893542e-05</v>
+        <v>0.01378979161381721</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0004480565548874438</v>
+        <v>0.03256133198738098</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0004228813340887427</v>
+        <v>0.003380917478352785</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.000137086637550965</v>
+        <v>0.0006118006422184408</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0004439624608494341</v>
+        <v>0.008873189799487591</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0003390578785911202</v>
+        <v>0.02130208350718021</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.000504340510815382</v>
+        <v>0.006467320024967194</v>
       </c>
       <c r="FX11" t="n">
-        <v>6.143406790215522e-05</v>
+        <v>0.02134433388710022</v>
       </c>
       <c r="FY11" t="n">
-        <v>6.599913467653096e-05</v>
+        <v>0.01445801369845867</v>
       </c>
       <c r="FZ11" t="n">
-        <v>3.548126551322639e-05</v>
+        <v>0.003084091003984213</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.0001776577992131934</v>
+        <v>0.008321916684508324</v>
       </c>
       <c r="GB11" t="n">
-        <v>7.071263826219365e-05</v>
+        <v>0.0076902792789042</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0001871523563750088</v>
+        <v>0.001567204133607447</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0003594759618863463</v>
+        <v>0.01473963912576437</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0003046826459467411</v>
+        <v>0.01625972241163254</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0001096857304219157</v>
+        <v>0.01496610604226589</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0003793305077124387</v>
+        <v>0.02020231261849403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.283802991267294e-05</v>
+        <v>0.00204048864543438</v>
       </c>
       <c r="B12" t="n">
-        <v>5.427564246929251e-06</v>
+        <v>0.02313845045864582</v>
       </c>
       <c r="C12" t="n">
-        <v>6.227483936527278e-06</v>
+        <v>0.0003172686265315861</v>
       </c>
       <c r="D12" t="n">
-        <v>6.100859900470823e-05</v>
+        <v>0.01797297969460487</v>
       </c>
       <c r="E12" t="n">
-        <v>1.586017788213212e-05</v>
+        <v>0.00418649148195982</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0001771149254636839</v>
+        <v>0.004857760388404131</v>
       </c>
       <c r="G12" t="n">
-        <v>5.170678559807129e-05</v>
+        <v>0.002304533030837774</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002866742142941803</v>
+        <v>0.004099972080439329</v>
       </c>
       <c r="I12" t="n">
-        <v>2.364910687902011e-05</v>
+        <v>0.0011614840477705</v>
       </c>
       <c r="J12" t="n">
-        <v>2.813177343341522e-05</v>
+        <v>0.0007797430735081434</v>
       </c>
       <c r="K12" t="n">
-        <v>2.516662061680108e-05</v>
+        <v>0.02189173176884651</v>
       </c>
       <c r="L12" t="n">
-        <v>1.149306626757607e-06</v>
+        <v>0.001978922635316849</v>
       </c>
       <c r="M12" t="n">
-        <v>1.129966585722286e-05</v>
+        <v>0.01560214348137379</v>
       </c>
       <c r="N12" t="n">
-        <v>1.413894824509043e-05</v>
+        <v>0.006255005020648241</v>
       </c>
       <c r="O12" t="n">
-        <v>9.958915325114504e-05</v>
+        <v>0.001794697367586195</v>
       </c>
       <c r="P12" t="n">
-        <v>5.211879761191085e-05</v>
+        <v>0.001185495057143271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0003455401456449181</v>
+        <v>0.00322849047370255</v>
       </c>
       <c r="R12" t="n">
-        <v>1.729952964524273e-05</v>
+        <v>0.001944284420460463</v>
       </c>
       <c r="S12" t="n">
-        <v>1.31735860122717e-05</v>
+        <v>0.001649635145440698</v>
       </c>
       <c r="T12" t="n">
-        <v>2.257475898659322e-06</v>
+        <v>0.004376377444714308</v>
       </c>
       <c r="U12" t="n">
-        <v>2.201688403147273e-06</v>
+        <v>1.296593109145761e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.675537168921437e-05</v>
+        <v>0.0007236648816615343</v>
       </c>
       <c r="W12" t="n">
-        <v>4.186121805105358e-05</v>
+        <v>0.001223614206537604</v>
       </c>
       <c r="X12" t="n">
-        <v>4.021237691631541e-05</v>
+        <v>0.0002399843506282195</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.49484757357277e-05</v>
+        <v>0.002316733356565237</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.144864892121404e-05</v>
+        <v>0.003333220491185784</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.642752512358129e-06</v>
+        <v>0.003583193989470601</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.450793519732542e-05</v>
+        <v>0.0004844078794121742</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.938903657603078e-05</v>
+        <v>0.00504347775131464</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.212402457895223e-05</v>
+        <v>0.0009770197793841362</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.760624273738358e-06</v>
+        <v>6.979249883443117e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.368797868257388e-05</v>
+        <v>0.001538332435302436</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.655897151271347e-05</v>
+        <v>0.002275535138323903</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0001044787277351134</v>
+        <v>0.002107339445501566</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.728998176986352e-05</v>
+        <v>0.0007809916278347373</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.831663732649758e-05</v>
+        <v>0.0008483229903504252</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.115975010179682e-05</v>
+        <v>0.001271125394850969</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.900734009221196e-05</v>
+        <v>0.002656278200447559</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.960118894814514e-05</v>
+        <v>9.462748130317777e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.688878182903863e-05</v>
+        <v>0.001967964228242636</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0001212573915836401</v>
+        <v>0.003588306251913309</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.676915235293563e-05</v>
+        <v>0.001651891972869635</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.389988483424531e-06</v>
+        <v>0.003026031889021397</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.397194591845619e-05</v>
+        <v>0.001042600139044225</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.223571234731935e-05</v>
+        <v>7.315245966310613e-06</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.527306398609653e-05</v>
+        <v>0.003962119575589895</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.186978422803804e-05</v>
+        <v>0.01820545271039009</v>
       </c>
       <c r="AV12" t="n">
-        <v>7.067059414112009e-06</v>
+        <v>0.004280108027160168</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.156669117743149e-05</v>
+        <v>0.004767477046698332</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.852259609033354e-06</v>
+        <v>0.001690026256255805</v>
       </c>
       <c r="AY12" t="n">
-        <v>7.553225441370159e-05</v>
+        <v>0.001607106067240238</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4.922003427054733e-07</v>
+        <v>0.000835749669931829</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0001102261157939211</v>
+        <v>0.002652955474331975</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.750983574311249e-05</v>
+        <v>0.000784540839958936</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.289179181185318e-05</v>
+        <v>0.004346685484051704</v>
       </c>
       <c r="BD12" t="n">
-        <v>8.318949767271988e-06</v>
+        <v>0.001409901073202491</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.82213841273915e-05</v>
+        <v>0.004118717741221189</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.843879337888211e-05</v>
+        <v>0.002521950285881758</v>
       </c>
       <c r="BG12" t="n">
-        <v>9.224566383636557e-06</v>
+        <v>0.004878808278590441</v>
       </c>
       <c r="BH12" t="n">
-        <v>4.260267814970575e-06</v>
+        <v>0.002219323301687837</v>
       </c>
       <c r="BI12" t="n">
-        <v>6.903664325363934e-05</v>
+        <v>0.0003115875297226012</v>
       </c>
       <c r="BJ12" t="n">
-        <v>9.468733333051205e-05</v>
+        <v>0.005276320036500692</v>
       </c>
       <c r="BK12" t="n">
-        <v>7.341162563534454e-05</v>
+        <v>0.0009241763618774712</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.744441942719277e-05</v>
+        <v>0.003303064033389091</v>
       </c>
       <c r="BM12" t="n">
-        <v>2.84949092019815e-05</v>
+        <v>0.003601133590564132</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.045157296175603e-05</v>
+        <v>0.000812167301774025</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.624256012495607e-08</v>
+        <v>0.001400201348587871</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.078966306522489e-05</v>
+        <v>0.006390348076820374</v>
       </c>
       <c r="BQ12" t="n">
-        <v>3.113404454779811e-05</v>
+        <v>0.001624531578272581</v>
       </c>
       <c r="BR12" t="n">
-        <v>7.675383676541969e-05</v>
+        <v>0.0008918547537177801</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.174736048094928e-05</v>
+        <v>0.002177475253120065</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.324701042904053e-05</v>
+        <v>0.003005301347002387</v>
       </c>
       <c r="BU12" t="n">
-        <v>2.850964301615022e-05</v>
+        <v>0.001769402646459639</v>
       </c>
       <c r="BV12" t="n">
-        <v>2.06147124117706e-05</v>
+        <v>0.008787378668785095</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.209857146022841e-06</v>
+        <v>0.0009435181273147464</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.984682239708491e-05</v>
+        <v>0.00227796658873558</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.621990122657735e-05</v>
+        <v>0.002287188544869423</v>
       </c>
       <c r="BZ12" t="n">
-        <v>8.393949246965349e-05</v>
+        <v>0.001066923490725458</v>
       </c>
       <c r="CA12" t="n">
-        <v>3.257199568906799e-05</v>
+        <v>0.002042550593614578</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0001043392621795647</v>
+        <v>0.0003235331387259066</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.719561259960756e-05</v>
+        <v>0.002256168751046062</v>
       </c>
       <c r="CD12" t="n">
-        <v>9.381910786032677e-06</v>
+        <v>0.0001367096410831437</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.452168180549052e-05</v>
+        <v>0.00415341230109334</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.5043357204122e-06</v>
+        <v>0.000757418223656714</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.670462006586604e-05</v>
+        <v>0.001342139556072652</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.080692163668573e-05</v>
+        <v>0.0008384785032831132</v>
       </c>
       <c r="CI12" t="n">
-        <v>2.259942630189471e-05</v>
+        <v>0.001041678595356643</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1.130985401687212e-05</v>
+        <v>0.0007302277954295278</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.574226815951988e-05</v>
+        <v>0.0004036806058138609</v>
       </c>
       <c r="CL12" t="n">
-        <v>4.0641643863637e-06</v>
+        <v>0.0006595211452804506</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.296692739240825e-05</v>
+        <v>0.007866551168262959</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.167186539736576e-05</v>
+        <v>0.002631722018122673</v>
       </c>
       <c r="CO12" t="n">
-        <v>3.356506203999743e-05</v>
+        <v>0.0005324726807884872</v>
       </c>
       <c r="CP12" t="n">
-        <v>8.356584658031352e-06</v>
+        <v>0.007683404255658388</v>
       </c>
       <c r="CQ12" t="n">
-        <v>2.522050453990232e-05</v>
+        <v>0.006520234048366547</v>
       </c>
       <c r="CR12" t="n">
-        <v>4.31329281127546e-05</v>
+        <v>0.002453233581036329</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.905315730255097e-05</v>
+        <v>0.005337046459317207</v>
       </c>
       <c r="CT12" t="n">
-        <v>2.097964897984639e-05</v>
+        <v>0.006777374073863029</v>
       </c>
       <c r="CU12" t="n">
-        <v>4.572774923872203e-05</v>
+        <v>0.0001625257427804172</v>
       </c>
       <c r="CV12" t="n">
-        <v>7.036947863525711e-06</v>
+        <v>0.0006719677476212382</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.380688627250493e-05</v>
+        <v>0.003747478593140841</v>
       </c>
       <c r="CX12" t="n">
-        <v>2.17523461287783e-06</v>
+        <v>0.001650928636081517</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.144338693848113e-05</v>
+        <v>0.002883469220250845</v>
       </c>
       <c r="CZ12" t="n">
-        <v>8.649494702694938e-06</v>
+        <v>0.00101289851590991</v>
       </c>
       <c r="DA12" t="n">
-        <v>2.656232936715242e-05</v>
+        <v>0.0007101313094608486</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.799654223257676e-06</v>
+        <v>0.001373455277644098</v>
       </c>
       <c r="DC12" t="n">
-        <v>6.152011337690055e-05</v>
+        <v>0.0008911755285225809</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.973617589916103e-06</v>
+        <v>1.43313518492505e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>8.176807023119181e-05</v>
+        <v>0.002848365344107151</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.00012104104825994</v>
+        <v>0.0002124615712091327</v>
       </c>
       <c r="DG12" t="n">
-        <v>4.397646625875495e-05</v>
+        <v>0.002175802597776055</v>
       </c>
       <c r="DH12" t="n">
-        <v>3.128297612420283e-05</v>
+        <v>0.003859329503029585</v>
       </c>
       <c r="DI12" t="n">
-        <v>7.264588930411264e-05</v>
+        <v>0.001017273752950132</v>
       </c>
       <c r="DJ12" t="n">
-        <v>8.060651452979073e-05</v>
+        <v>0.000132251821924001</v>
       </c>
       <c r="DK12" t="n">
-        <v>9.882446647679899e-06</v>
+        <v>9.033136302605271e-05</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.717038685455918e-05</v>
+        <v>0.001581138232722878</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.881462180288509e-05</v>
+        <v>0.0008922094712033868</v>
       </c>
       <c r="DN12" t="n">
-        <v>2.087502070935443e-05</v>
+        <v>0.0001144923735409975</v>
       </c>
       <c r="DO12" t="n">
-        <v>3.536380972946063e-05</v>
+        <v>0.0008948990143835545</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.210828850162216e-05</v>
+        <v>0.002163309836760163</v>
       </c>
       <c r="DQ12" t="n">
-        <v>4.847307081945473e-06</v>
+        <v>0.003058963920921087</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.804281964723486e-05</v>
+        <v>0.0026127805467695</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.116719952027779e-05</v>
+        <v>0.0003030444495379925</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.391120455693454e-05</v>
+        <v>0.0002397216885583475</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.761685729841702e-05</v>
+        <v>0.001693193567916751</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.45715618802933e-05</v>
+        <v>0.002220205496996641</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.40474121508305e-05</v>
+        <v>0.001370731508359313</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.039011294778902e-06</v>
+        <v>0.002397410338744521</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.421003955532797e-05</v>
+        <v>0.003006635466590524</v>
       </c>
       <c r="DZ12" t="n">
-        <v>2.870523167075589e-05</v>
+        <v>0.00113787455484271</v>
       </c>
       <c r="EA12" t="n">
-        <v>4.321783490013331e-05</v>
+        <v>0.0002005323767662048</v>
       </c>
       <c r="EB12" t="n">
-        <v>2.589733776403591e-05</v>
+        <v>0.0006766590522602201</v>
       </c>
       <c r="EC12" t="n">
-        <v>9.686542398412712e-06</v>
+        <v>0.001775635057128966</v>
       </c>
       <c r="ED12" t="n">
-        <v>5.809143203805434e-06</v>
+        <v>0.001838086755014956</v>
       </c>
       <c r="EE12" t="n">
-        <v>9.797402526601218e-06</v>
+        <v>0.0003064034390263259</v>
       </c>
       <c r="EF12" t="n">
-        <v>2.114050585078076e-05</v>
+        <v>0.0003260623198002577</v>
       </c>
       <c r="EG12" t="n">
-        <v>6.233563181012869e-05</v>
+        <v>0.002853359561413527</v>
       </c>
       <c r="EH12" t="n">
-        <v>2.958200639113784e-06</v>
+        <v>0.001727991853840649</v>
       </c>
       <c r="EI12" t="n">
-        <v>2.42396581597859e-05</v>
+        <v>0.002923561492934823</v>
       </c>
       <c r="EJ12" t="n">
-        <v>4.710331268142909e-05</v>
+        <v>0.004314104560762644</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.06162260635756e-05</v>
+        <v>0.0006429659551940858</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.417487510479987e-06</v>
+        <v>0.0007120741065591574</v>
       </c>
       <c r="EM12" t="n">
-        <v>6.60786172375083e-05</v>
+        <v>0.0003352649218868464</v>
       </c>
       <c r="EN12" t="n">
-        <v>3.853949237964116e-06</v>
+        <v>0.000991866341792047</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.976564453798346e-05</v>
+        <v>0.0001455578021705151</v>
       </c>
       <c r="EP12" t="n">
-        <v>1.161078216682654e-05</v>
+        <v>0.004483310971409082</v>
       </c>
       <c r="EQ12" t="n">
-        <v>2.010564458032604e-05</v>
+        <v>0.001940592541359365</v>
       </c>
       <c r="ER12" t="n">
-        <v>4.625128713087179e-05</v>
+        <v>0.001703193527646363</v>
       </c>
       <c r="ES12" t="n">
-        <v>4.939326026942581e-05</v>
+        <v>0.0004354188276920468</v>
       </c>
       <c r="ET12" t="n">
-        <v>4.143027035752311e-05</v>
+        <v>0.001288429019041359</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.817595304804854e-05</v>
+        <v>0.003264273516833782</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.183844506158493e-05</v>
+        <v>0.003816842334344983</v>
       </c>
       <c r="EW12" t="n">
-        <v>6.404123269021511e-06</v>
+        <v>0.003081798320636153</v>
       </c>
       <c r="EX12" t="n">
-        <v>6.612061042687856e-06</v>
+        <v>0.00043765630107373</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.676098509051371e-05</v>
+        <v>0.003891615197062492</v>
       </c>
       <c r="EZ12" t="n">
-        <v>3.221009819753817e-06</v>
+        <v>0.001036220928654075</v>
       </c>
       <c r="FA12" t="n">
-        <v>2.788662459352054e-05</v>
+        <v>0.001959110843017697</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.884561763494276e-05</v>
+        <v>0.000440368487033993</v>
       </c>
       <c r="FC12" t="n">
-        <v>2.729198240558617e-05</v>
+        <v>0.0004508529091253877</v>
       </c>
       <c r="FD12" t="n">
-        <v>1.040704501065193e-05</v>
+        <v>0.001158581348136067</v>
       </c>
       <c r="FE12" t="n">
-        <v>7.146281859604642e-05</v>
+        <v>0.0003384279843885452</v>
       </c>
       <c r="FF12" t="n">
-        <v>6.567350737896049e-06</v>
+        <v>0.0004746599588543177</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.165162575489376e-05</v>
+        <v>0.0002963683800771832</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.002308636088856e-06</v>
+        <v>0.001575548434630036</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.594744026078843e-05</v>
+        <v>0.005161426961421967</v>
       </c>
       <c r="FJ12" t="n">
-        <v>5.106081516714767e-06</v>
+        <v>0.002566083334386349</v>
       </c>
       <c r="FK12" t="n">
-        <v>5.885947030037642e-05</v>
+        <v>0.001360972877591848</v>
       </c>
       <c r="FL12" t="n">
-        <v>2.220745227532461e-05</v>
+        <v>0.0008491107728332281</v>
       </c>
       <c r="FM12" t="n">
-        <v>3.009938154718839e-05</v>
+        <v>0.001023632124997675</v>
       </c>
       <c r="FN12" t="n">
-        <v>2.579631836852059e-05</v>
+        <v>3.768735041376203e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>3.699298031278886e-05</v>
+        <v>0.0008881108369678259</v>
       </c>
       <c r="FP12" t="n">
-        <v>5.218700607656501e-05</v>
+        <v>0.00264901015907526</v>
       </c>
       <c r="FQ12" t="n">
-        <v>5.044433783041313e-05</v>
+        <v>0.001097355154342949</v>
       </c>
       <c r="FR12" t="n">
-        <v>5.356596375349909e-07</v>
+        <v>0.004944325890392065</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.907192199723795e-07</v>
+        <v>0.002175896428525448</v>
       </c>
       <c r="FT12" t="n">
-        <v>1.396170409861952e-05</v>
+        <v>0.003253344213590026</v>
       </c>
       <c r="FU12" t="n">
-        <v>4.754186375066638e-05</v>
+        <v>0.002657542005181313</v>
       </c>
       <c r="FV12" t="n">
-        <v>4.15842623624485e-05</v>
+        <v>0.00125755462795496</v>
       </c>
       <c r="FW12" t="n">
-        <v>3.951899634557776e-05</v>
+        <v>0.0004856179875787348</v>
       </c>
       <c r="FX12" t="n">
-        <v>3.624580494943075e-05</v>
+        <v>0.001518592122010887</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.257489177281968e-05</v>
+        <v>0.004361808300018311</v>
       </c>
       <c r="FZ12" t="n">
-        <v>5.952715582679957e-06</v>
+        <v>0.001484389184042811</v>
       </c>
       <c r="GA12" t="n">
-        <v>1.161063028121134e-05</v>
+        <v>0.002144872676581144</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.558871736051515e-05</v>
+        <v>0.001455323421396315</v>
       </c>
       <c r="GC12" t="n">
-        <v>9.306520951213315e-06</v>
+        <v>0.0007801305036991835</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.871290416806005e-05</v>
+        <v>0.003843984566628933</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.658009907463565e-05</v>
+        <v>0.009056613780558109</v>
       </c>
       <c r="GF12" t="n">
-        <v>2.47187363129342e-05</v>
+        <v>0.001379546825774014</v>
       </c>
       <c r="GG12" t="n">
-        <v>3.39570510732301e-06</v>
+        <v>0.002989866537973285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01364205218851566</v>
+        <v>0.008470552042126656</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002198271919041872</v>
+        <v>0.2703885734081268</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02638140879571438</v>
+        <v>0.1138880401849747</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01200590468943119</v>
+        <v>0.02686166949570179</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02400168403983116</v>
+        <v>0.06162579730153084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02701126970350742</v>
+        <v>0.03449483588337898</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03030872903764248</v>
+        <v>0.02684349566698074</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09647391736507416</v>
+        <v>0.006958406418561935</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01193462871015072</v>
+        <v>0.0166374184191227</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01379271782934666</v>
+        <v>0.04037036374211311</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007955554872751236</v>
+        <v>0.219831794500351</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03024705871939659</v>
+        <v>0.07793748378753662</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008983316831290722</v>
+        <v>0.04635576158761978</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02482919581234455</v>
+        <v>0.04302459955215454</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00595832196995616</v>
+        <v>0.02403596043586731</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04783668369054794</v>
+        <v>0.01486489363014698</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1044179946184158</v>
+        <v>0.0454489067196846</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01811736077070236</v>
+        <v>0.02275429852306843</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004353574477136135</v>
+        <v>0.006174187175929546</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004350167699158192</v>
+        <v>0.02243567258119583</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008579107001423836</v>
+        <v>0.01037906855344772</v>
       </c>
       <c r="V13" t="n">
-        <v>0.009279808029532433</v>
+        <v>0.009536942467093468</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01600527763366699</v>
+        <v>0.001562380231916904</v>
       </c>
       <c r="X13" t="n">
-        <v>0.009676307439804077</v>
+        <v>0.02150831930339336</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02137212455272675</v>
+        <v>0.0005898196250200272</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04650456458330154</v>
+        <v>0.05728831887245178</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006324750371277332</v>
+        <v>0.01155564468353987</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01174012012779713</v>
+        <v>0.003654682077467442</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02978016808629036</v>
+        <v>0.04582299292087555</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02631546929478645</v>
+        <v>0.01182537898421288</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.00201971922069788</v>
+        <v>0.0005629216320812702</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.007024501916021109</v>
+        <v>0.0194521751254797</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0124328350648284</v>
+        <v>0.001566577702760696</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.02994005382061005</v>
+        <v>0.01965050026774406</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.004470309242606163</v>
+        <v>0.02145804092288017</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0001950048608705401</v>
+        <v>0.01619178615510464</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0004194090142846107</v>
+        <v>0.04029420763254166</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.005102881230413914</v>
+        <v>0.01915897242724895</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.01335652731359005</v>
+        <v>0.03371468931436539</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.003766125766560435</v>
+        <v>0.003912846557796001</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.04570585116744041</v>
+        <v>0.005491804797202349</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.003070260863751173</v>
+        <v>0.03729970753192902</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001260827179066837</v>
+        <v>0.004604061134159565</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.008678941987454891</v>
+        <v>0.002529871882870793</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.002412273082882166</v>
+        <v>0.02214272320270538</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.004455355927348137</v>
+        <v>0.008388334885239601</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.02820895984768867</v>
+        <v>0.1426878571510315</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002238296438008547</v>
+        <v>0.04719049483537674</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0006295475759543478</v>
+        <v>0.01429998129606247</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01528998278081417</v>
+        <v>0.02934888750314713</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.00818068441003561</v>
+        <v>0.03010068833827972</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01530607789754868</v>
+        <v>0.03113382682204247</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.03882814943790436</v>
+        <v>0.003468126291409135</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.01573224924504757</v>
+        <v>0.03165318816900253</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.00697640422731638</v>
+        <v>0.003633022308349609</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.003506523557007313</v>
+        <v>0.08171185851097107</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0008420582162216306</v>
+        <v>0.05934037640690804</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.01353808399289846</v>
+        <v>0.01028682477772236</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.008549684658646584</v>
+        <v>0.01920597068965435</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.01281342748552561</v>
+        <v>0.02841269783675671</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.03417522460222244</v>
+        <v>0.004741019569337368</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.02310544811189175</v>
+        <v>0.04038112610578537</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.01471059117466211</v>
+        <v>0.01817730627954006</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.01455315295606852</v>
+        <v>0.01145474798977375</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01617317460477352</v>
+        <v>0.05375731363892555</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002979833167046309</v>
+        <v>0.03083842620253563</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01195653527975082</v>
+        <v>0.007127861492335796</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.007193962577730417</v>
+        <v>0.004074492491781712</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.02174823544919491</v>
+        <v>0.02435809373855591</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.005263951607048512</v>
+        <v>0.02065270580351353</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.02037053555250168</v>
+        <v>0.000438361894339323</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0119477454572916</v>
+        <v>0.02419999055564404</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.01643181964755058</v>
+        <v>0.006239723414182663</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.004334543365985155</v>
+        <v>0.06856898218393326</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0196510124951601</v>
+        <v>0.0655546709895134</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.002499024150893092</v>
+        <v>0.01524824649095535</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0111868791282177</v>
+        <v>0.02743257768452168</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.01190030481666327</v>
+        <v>0.01505301333963871</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.01203586347401142</v>
+        <v>0.008079580031335354</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.04146347567439079</v>
+        <v>0.002607285510748625</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.00826605036854744</v>
+        <v>0.005113512743264437</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.005345012061297894</v>
+        <v>0.007299689576029778</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.004635897930711508</v>
+        <v>0.04740438237786293</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.002281738445162773</v>
+        <v>0.006305425427854061</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.007254802156239748</v>
+        <v>0.005579016171395779</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.007436520420014858</v>
+        <v>0.02200199104845524</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.01070818956941366</v>
+        <v>0.004611825570464134</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.00902461726218462</v>
+        <v>0.01186761632561684</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0162531603127718</v>
+        <v>0.01231157220900059</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.003149442374706268</v>
+        <v>0.005920770112425089</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.01684955693781376</v>
+        <v>0.04296036809682846</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.008481212891638279</v>
+        <v>0.02093463763594627</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.01933122053742409</v>
+        <v>0.01358634140342474</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0006818198598921299</v>
+        <v>0.01643460988998413</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.00698555912822485</v>
+        <v>0.01171394065022469</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.02264668233692646</v>
+        <v>0.0602000430226326</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.01069609913975</v>
+        <v>0.0439043827354908</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.002017935737967491</v>
+        <v>0.01577568612992764</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.01642833836376667</v>
+        <v>0.02827655151486397</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.008782440796494484</v>
+        <v>0.006910395808517933</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.007131724618375301</v>
+        <v>0.04620373621582985</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.001838050899095833</v>
+        <v>0.01199546176940203</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.009739679284393787</v>
+        <v>0.01426183246076107</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.003391583682969213</v>
+        <v>0.02974817529320717</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.01160551700741053</v>
+        <v>0.006303736008703709</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.00707131065428257</v>
+        <v>0.0124198142439127</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.01677904836833477</v>
+        <v>0.01627026870846748</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.002159768017008901</v>
+        <v>0.001562827033922076</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01818721182644367</v>
+        <v>0.04725876450538635</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02854851447045803</v>
+        <v>0.05286617204546928</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.006730003748089075</v>
+        <v>0.004033959470689297</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.03411726281046867</v>
+        <v>0.0543866753578186</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0376596674323082</v>
+        <v>0.0405244268476963</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0346338152885437</v>
+        <v>0.03829517215490341</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.002477813512086868</v>
+        <v>0.002220053225755692</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.002008047420531511</v>
+        <v>0.02183861844241619</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.020523801445961</v>
+        <v>0.03982254862785339</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.002572039142251015</v>
+        <v>0.009611411020159721</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001015085843391716</v>
+        <v>0.02301420085132122</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.006478270050138235</v>
+        <v>0.009580580517649651</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.001912523061037064</v>
+        <v>0.0200444795191288</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.001198810059577227</v>
+        <v>0.005784009117633104</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.02211181446909904</v>
+        <v>0.01199579332023859</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.01454327069222927</v>
+        <v>0.01340471394360065</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.02041848748922348</v>
+        <v>0.02880650758743286</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.02301113121211529</v>
+        <v>0.01998312026262283</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.002198407426476479</v>
+        <v>0.004437556490302086</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.009452318772673607</v>
+        <v>0.04455491155385971</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.001817187527194619</v>
+        <v>0.0210171602666378</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.005587771534919739</v>
+        <v>0.001337788067758083</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.004496803041547537</v>
+        <v>0.007796206511557102</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.008582995273172855</v>
+        <v>0.0217187013477087</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.004990511573851109</v>
+        <v>0.007556492928415537</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.005664816126227379</v>
+        <v>0.001133659388870001</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.00418957881629467</v>
+        <v>0.01528788171708584</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.00055728480219841</v>
+        <v>0.02842530980706215</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01475069206207991</v>
+        <v>0.02787721529603004</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.009965401142835617</v>
+        <v>0.01712825894355774</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.01470235176384449</v>
+        <v>0.006195398047566414</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01769033446907997</v>
+        <v>0.002327853813767433</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0199175551533699</v>
+        <v>0.009812943637371063</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.002634501317515969</v>
+        <v>0.006100752390921116</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.02684762142598629</v>
+        <v>0.0001756497658789158</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.007996893487870693</v>
+        <v>0.003945449367165565</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.01737573929131031</v>
+        <v>0.0001301146112382412</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01971906051039696</v>
+        <v>0.03568445891141891</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01105317752808332</v>
+        <v>0.01225990056991577</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.02981579303741455</v>
+        <v>0.01704124920070171</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.007801116444170475</v>
+        <v>0.04034117609262466</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.01654103770852089</v>
+        <v>0.01688701286911964</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.008766084909439087</v>
+        <v>0.02981240674853325</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.003317350056022406</v>
+        <v>0.03895566985011101</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.01104925107210875</v>
+        <v>0.05012222006917</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.006529034115374088</v>
+        <v>0.01342685520648956</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.004314228426665068</v>
+        <v>0.04536071047186852</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.003057524096220732</v>
+        <v>0.009124330244958401</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.01348728779703379</v>
+        <v>0.006368489935994148</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0003796757664531469</v>
+        <v>0.02704738639295101</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.01137206330895424</v>
+        <v>0.01009768713265657</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.008440114557743073</v>
+        <v>0.01849189400672913</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.02329596504569054</v>
+        <v>0.01623418368399143</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.001282458659261465</v>
+        <v>0.01032263599336147</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.00507085770368576</v>
+        <v>0.007750993594527245</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.009754332713782787</v>
+        <v>0.01222531963139772</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.001535186776891351</v>
+        <v>0.01782859861850739</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.003085803939029574</v>
+        <v>0.01616217195987701</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0001231634523719549</v>
+        <v>0.04057909548282623</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.02857842668890953</v>
+        <v>0.007841167040169239</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0140930162742734</v>
+        <v>0.004511931445449591</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.006666873581707478</v>
+        <v>0.02605859935283661</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.001162824220955372</v>
+        <v>0.02996622584760189</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.004490727558732033</v>
+        <v>0.03092149458825588</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01863976754248142</v>
+        <v>0.008059829473495483</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001981400651857257</v>
+        <v>0.05255837738513947</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.004721354693174362</v>
+        <v>0.008367480710148811</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004938208032399416</v>
+        <v>0.01022344548255205</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.02168299630284309</v>
+        <v>0.02051020599901676</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.02022497914731503</v>
+        <v>0.01293567568063736</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.01393012795597315</v>
+        <v>0.005414047744125128</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.01953776553273201</v>
+        <v>0.01500506699085236</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.02006816491484642</v>
+        <v>0.02673418633639812</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.01413380354642868</v>
+        <v>0.0244535319507122</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.008628580719232559</v>
+        <v>0.03276589512825012</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.01368378009647131</v>
+        <v>0.0006672530435025692</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.005006552208214998</v>
+        <v>0.002679275348782539</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01227875426411629</v>
+        <v>0.01628188788890839</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.006040035746991634</v>
+        <v>0.0395660474896431</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.007443592417985201</v>
+        <v>0.09976261854171753</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.005953837186098099</v>
+        <v>0.02178124152123928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.007731934078037739</v>
+        <v>0.000907350389752537</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05609862506389618</v>
+        <v>0.01268154568970203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02472582086920738</v>
+        <v>0.0007322457386180758</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07085178047418594</v>
+        <v>0.003431201912462711</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0387548953294754</v>
+        <v>0.001510578207671642</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01258216053247452</v>
+        <v>0.008244827389717102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01257140748202801</v>
+        <v>0.001664055860601366</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13992840051651</v>
+        <v>0.004313571378588676</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003895340720191598</v>
+        <v>0.0003180251223966479</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01306930091232061</v>
+        <v>0.002207092009484768</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005209350027143955</v>
+        <v>0.01174016669392586</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007221371401101351</v>
+        <v>0.000193328145542182</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05568782612681389</v>
+        <v>0.002851213794201612</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05701229348778725</v>
+        <v>0.0007561584934592247</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05193091183900833</v>
+        <v>0.006532726809382439</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03088376671075821</v>
+        <v>0.002566480077803135</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1718357652425766</v>
+        <v>0.002228441881015897</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01003854908049107</v>
+        <v>8.402322418987751e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.005864134058356285</v>
+        <v>9.838283585850149e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02102705463767052</v>
+        <v>0.0009660638170316815</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01487042009830475</v>
+        <v>0.000270371267106384</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02418514341115952</v>
+        <v>0.0007180067477747798</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06658419221639633</v>
+        <v>0.00126212986651808</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01023603603243828</v>
+        <v>0.0009820389095693827</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005569344852119684</v>
+        <v>0.0001089951547328383</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.05309462174773216</v>
+        <v>0.001024381257593632</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001307067228481174</v>
+        <v>0.0007396464934572577</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01761852018535137</v>
+        <v>0.0002037471276707947</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02885613031685352</v>
+        <v>0.0009387811296619475</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.002911724848672748</v>
+        <v>0.0006007151678204536</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02302712202072144</v>
+        <v>8.703465573489666e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.00404857425019145</v>
+        <v>0.00108433049172163</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.001017673406749964</v>
+        <v>0.0004504704265855253</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0289120078086853</v>
+        <v>4.176115908194333e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.02819844335317612</v>
+        <v>0.0009275198681280017</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.03113778308033943</v>
+        <v>0.0008514010114595294</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.002886444795876741</v>
+        <v>0.001309084007516503</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.03129829093813896</v>
+        <v>0.00151150964666158</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.002552048303186893</v>
+        <v>0.0005663918564096093</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.002408352680504322</v>
+        <v>0.0006480367155745625</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0375811867415905</v>
+        <v>0.001207529101520777</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.005281182006001472</v>
+        <v>0.002601188607513905</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.004260721616446972</v>
+        <v>0.000929299567360431</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.004637132864445448</v>
+        <v>0.0009196283062919974</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.004587894771248102</v>
+        <v>0.0008783219382166862</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.009080348536372185</v>
+        <v>0.0001428388059139252</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.04367056488990784</v>
+        <v>0.007330531720072031</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.011535351164639</v>
+        <v>0.001992098987102509</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.04337079450488091</v>
+        <v>0.0009276012424379587</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.008728781715035439</v>
+        <v>0.001253872876986861</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0114677008241415</v>
+        <v>0.004980628378689289</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.02267006039619446</v>
+        <v>0.001629196107387543</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.04771936312317848</v>
+        <v>0.001922569470480084</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.01261020358651876</v>
+        <v>0.001222708146087825</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.004344281274825335</v>
+        <v>0.0005587116465903819</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.01509733591228724</v>
+        <v>0.001967387739568949</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.005682630464434624</v>
+        <v>0.002332083415240049</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.02995308488607407</v>
+        <v>0.001848530955612659</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0223955325782299</v>
+        <v>0.003351767314597964</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.02173696644604206</v>
+        <v>0.002783280331641436</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.02949940599501133</v>
+        <v>0.0001026800455292687</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.03909371048212051</v>
+        <v>0.0003924043849110603</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.00682232016697526</v>
+        <v>0.0008569399360567331</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.01128449570387602</v>
+        <v>0.0004480156640056521</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.009946221485733986</v>
+        <v>0.001082832110114396</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.00731470063328743</v>
+        <v>0.0002430957974866033</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0002267605159431696</v>
+        <v>0.0001236133684869856</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.00522694131359458</v>
+        <v>0.000309035851387307</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.001452790340408683</v>
+        <v>0.0005600318545475602</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.01861162856221199</v>
+        <v>0.001287967665120959</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.02182851545512676</v>
+        <v>0.0005797009216621518</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.002923598513007164</v>
+        <v>0.0002618745202198625</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.02205569483339787</v>
+        <v>0.0001126764691434801</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.009065263904631138</v>
+        <v>0.004339274019002914</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.008440065197646618</v>
+        <v>0.0007182520930655301</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.01203279197216034</v>
+        <v>0.000535517290700227</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.01101066265255213</v>
+        <v>9.422916627954692e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.01603587716817856</v>
+        <v>0.002382739912718534</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.03196070715785027</v>
+        <v>0.0002045993751380593</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.04900769516825676</v>
+        <v>0.0006742522236891091</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.01212172582745552</v>
+        <v>0.0007697620894759893</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.01378157176077366</v>
+        <v>0.000311045499984175</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.003788996953517199</v>
+        <v>0.002237652195617557</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.003492945339530706</v>
+        <v>0.0002989050117321312</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.01491022668778896</v>
+        <v>0.0004559916560538113</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.006801443174481392</v>
+        <v>0.0006630182033404708</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0006283496622927487</v>
+        <v>0.0005411102902144194</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.004792127292603254</v>
+        <v>0.0009993496350944042</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.02821040339767933</v>
+        <v>0.0006296471692621708</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0005226745270192623</v>
+        <v>3.490792005322874e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.002916439436376095</v>
+        <v>0.001920577138662338</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.009231014177203178</v>
+        <v>0.000150833380757831</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.005624197423458099</v>
+        <v>0.0003768638707697392</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.004012904595583677</v>
+        <v>0.001928457757458091</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.02453229762613773</v>
+        <v>0.0006776266964152455</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.02200253307819366</v>
+        <v>0.001447192626073956</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.02436022460460663</v>
+        <v>0.001319065107963979</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.002410618821159005</v>
+        <v>0.0007694929372519255</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.02324341423809528</v>
+        <v>0.0001742204185575247</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.01124121062457561</v>
+        <v>0.0003174963349010795</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.001553878653794527</v>
+        <v>0.002193519845604897</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0049732462503016</v>
+        <v>0.0002998813288286328</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.01760705932974815</v>
+        <v>0.0008555952226743102</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.01238769199699163</v>
+        <v>0.0009214989258907735</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.002340057399123907</v>
+        <v>0.0007143233087845147</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.001771634793840349</v>
+        <v>0.000866295478772372</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.03097794763743877</v>
+        <v>0.001243749749846756</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.004214027896523476</v>
+        <v>0.0001184482534881681</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.02384498529136181</v>
+        <v>0.001025611185468733</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.08293746411800385</v>
+        <v>0.003121317131444812</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.01965080946683884</v>
+        <v>0.0008600055589340627</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.01646809279918671</v>
+        <v>0.003108303062617779</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.01163248531520367</v>
+        <v>0.00463974243029952</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.003720023669302464</v>
+        <v>0.003132854355499148</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0002542233560234308</v>
+        <v>0.0008251445251516998</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.02631055004894733</v>
+        <v>0.002843593945726752</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.02483418211340904</v>
+        <v>0.001470705610699952</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.009599374607205391</v>
+        <v>0.0003131342527922243</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.006312646437436342</v>
+        <v>0.0005775841418653727</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.006442771293222904</v>
+        <v>0.0004121709789615124</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.01535689644515514</v>
+        <v>4.069741407874972e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.003346120938658714</v>
+        <v>0.0001669169869273901</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.003517353441566229</v>
+        <v>0.001368573284707963</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.02859770506620407</v>
+        <v>0.0002416052739135921</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.005635425914078951</v>
+        <v>0.0001808419183362275</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.009721817448735237</v>
+        <v>0.0006266350974328816</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.01450158283114433</v>
+        <v>0.0001593966298969463</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.04405314475297928</v>
+        <v>0.001133845071308315</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.01061967108398676</v>
+        <v>0.0007781083695590496</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.007298790384083986</v>
+        <v>0.0007085920660756528</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.003380269510671496</v>
+        <v>0.000451358500868082</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.01105830632150173</v>
+        <v>0.000835361541248858</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.007033133879303932</v>
+        <v>0.0006183597724884748</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.01572780124843121</v>
+        <v>0.0009318147785961628</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.008376182988286018</v>
+        <v>0.001098297885619104</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.001529352273792028</v>
+        <v>0.0009117292938753963</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.005071032792329788</v>
+        <v>0.002263124566525221</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.01389405783265829</v>
+        <v>0.0006651678122580051</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.02040866203606129</v>
+        <v>0.0004510232247412205</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.004671470262110233</v>
+        <v>0.0002524036390241235</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.01191051583737135</v>
+        <v>0.0002912102499976754</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.01103557460010052</v>
+        <v>0.0008906494476832449</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.04984131082892418</v>
+        <v>0.0002389359724475071</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.007149681448936462</v>
+        <v>0.0002592047967482358</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.01304973661899567</v>
+        <v>0.000520318397320807</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.01974370330572128</v>
+        <v>0.002287334762513638</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.02232597395777702</v>
+        <v>0.0006171435234136879</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.01268390659242868</v>
+        <v>0.0009412061772309244</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.02532057091593742</v>
+        <v>0.001289759064093232</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.01462829671800137</v>
+        <v>0.0008482705452479422</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.009467886760830879</v>
+        <v>0.001037852140143514</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.01237025856971741</v>
+        <v>0.00160509895067662</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.01002657692879438</v>
+        <v>0.0007555900956504047</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.009796960279345512</v>
+        <v>0.0005188659415580332</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.001974227838218212</v>
+        <v>0.002239650348201394</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.004958029836416245</v>
+        <v>1.743232132866979e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.01483903825283051</v>
+        <v>0.000245267990976572</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01034330017864704</v>
+        <v>0.0008051072363741696</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.003778721671551466</v>
+        <v>0.0005312031134963036</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.003841621801257133</v>
+        <v>0.001179489307105541</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.03196592628955841</v>
+        <v>0.001243575708940625</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0006610732525587082</v>
+        <v>0.00036618672311306</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.005821536295115948</v>
+        <v>0.0006627911934629083</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.03763337805867195</v>
+        <v>0.0004267643671482801</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.01164370030164719</v>
+        <v>2.124934690073133e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.02185222320258617</v>
+        <v>0.001413983525708318</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.0124926995486021</v>
+        <v>0.0006030464428476989</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.002647268353030086</v>
+        <v>0.001382382237352431</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.008090101182460785</v>
+        <v>7.104018004611135e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.01786940917372704</v>
+        <v>1.648563193157315e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.003552239388227463</v>
+        <v>0.0008101864950731397</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.01979024894535542</v>
+        <v>0.001444882829673588</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.006217433139681816</v>
+        <v>0.0002008371957344934</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.03034943155944347</v>
+        <v>0.001556604402139783</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.009653791785240173</v>
+        <v>0.0002729178522713482</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01352363266050816</v>
+        <v>0.001760825631208718</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.006828208919614553</v>
+        <v>0.0006803293363191187</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.02917362004518509</v>
+        <v>0.0002741203061304986</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.06049670279026031</v>
+        <v>0.0001327659556409344</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0168539434671402</v>
+        <v>0.001009470550343394</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.02023334987461567</v>
+        <v>0.001833660062402487</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.02084151096642017</v>
+        <v>0.0007023223442956805</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.006548528093844652</v>
+        <v>0.0009577304008416831</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0138979610055685</v>
+        <v>0.0004784695629496127</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.00620996905490756</v>
+        <v>0.001821496756747365</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.02526300400495529</v>
+        <v>0.001523438608273864</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0238480418920517</v>
+        <v>0.00153305206913501</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.004263944458216429</v>
+        <v>0.0001507874694652855</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.007433076854795218</v>
+        <v>0.0001318330760113895</v>
       </c>
     </row>
     <row r="15">
